--- a/Documentation/Product Backlog2.xlsx
+++ b/Documentation/Product Backlog2.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.bowen\source\repos\Kanrail\5153-Ethics_Game\Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4350D404-A346-4C2E-BBFC-B881E16FD2C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <t>S.no.</t>
   </si>
@@ -123,67 +132,90 @@
   <si>
     <t>Sign in/ Register</t>
   </si>
+  <si>
+    <t>Wireframing</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>.25week</t>
+  </si>
+  <si>
+    <t>.25 week</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -373,27 +405,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="36.29"/>
-    <col customWidth="1" min="4" max="4" width="18.0"/>
-    <col customWidth="1" min="7" max="7" width="17.0"/>
-    <col customWidth="1" min="8" max="9" width="16.43"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="9" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -422,15 +459,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
@@ -447,15 +484,15 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>15</v>
@@ -472,15 +509,15 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>
@@ -497,15 +534,15 @@
       <c r="H4" s="2"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>20</v>
@@ -521,15 +558,15 @@
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>24</v>
@@ -545,15 +582,15 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>26</v>
@@ -569,15 +606,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>29</v>
@@ -593,15 +630,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>31</v>
@@ -617,15 +654,15 @@
       </c>
       <c r="I9" s="4"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>20</v>
@@ -641,34 +678,41 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>10.0</v>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12">
+      <c r="I11" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1">
-        <v>6.0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="2" t="s">
         <v>27</v>
@@ -676,17 +720,16 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>6</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="2" t="s">
         <v>27</v>
@@ -694,15 +737,15 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -712,15 +755,25 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15">
-      <c r="A15" s="4"/>
-      <c r="C15" s="4"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6</v>
+      </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
+      <c r="F15" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -728,7 +781,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -736,7 +789,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -744,7 +797,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -752,7 +805,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -760,7 +813,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -768,7 +821,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -776,7 +829,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -784,7 +837,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -792,7 +845,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -800,7 +853,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -808,7 +861,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -816,7 +869,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -824,7 +877,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -832,7 +885,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -840,7 +893,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -848,7 +901,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -856,7 +909,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -864,7 +917,7 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -872,7 +925,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -880,7 +933,7 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -888,7 +941,7 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -896,7 +949,7 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -904,7 +957,7 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -912,7 +965,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -920,7 +973,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -928,7 +981,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -936,7 +989,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -944,7 +997,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -952,7 +1005,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -960,7 +1013,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -968,7 +1021,7 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -976,7 +1029,7 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -984,7 +1037,7 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -992,7 +1045,7 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -1000,7 +1053,7 @@
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -1008,7 +1061,7 @@
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -1016,7 +1069,7 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -1024,7 +1077,7 @@
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -1032,7 +1085,7 @@
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -1040,7 +1093,7 @@
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -1048,7 +1101,7 @@
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -1056,7 +1109,7 @@
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -1064,7 +1117,7 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -1072,7 +1125,7 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -1080,7 +1133,7 @@
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -1088,7 +1141,7 @@
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -1096,7 +1149,7 @@
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -1104,7 +1157,7 @@
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -1112,7 +1165,7 @@
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -1120,7 +1173,7 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -1128,7 +1181,7 @@
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -1136,7 +1189,7 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -1144,7 +1197,7 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -1152,7 +1205,7 @@
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -1160,7 +1213,7 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -1168,7 +1221,7 @@
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -1176,7 +1229,7 @@
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -1184,7 +1237,7 @@
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -1192,7 +1245,7 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -1200,7 +1253,7 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -1208,7 +1261,7 @@
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -1216,7 +1269,7 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -1224,7 +1277,7 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -1232,7 +1285,7 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -1240,7 +1293,7 @@
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -1248,7 +1301,7 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -1256,7 +1309,7 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -1264,7 +1317,7 @@
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -1272,7 +1325,7 @@
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -1280,7 +1333,7 @@
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -1288,7 +1341,7 @@
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -1296,7 +1349,7 @@
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -1304,7 +1357,7 @@
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -1312,7 +1365,7 @@
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -1320,7 +1373,7 @@
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -1328,7 +1381,7 @@
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -1336,7 +1389,7 @@
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -1344,7 +1397,7 @@
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -1352,7 +1405,7 @@
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -1360,7 +1413,7 @@
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -1368,7 +1421,7 @@
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -1376,7 +1429,7 @@
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -1384,7 +1437,7 @@
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -1392,7 +1445,7 @@
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -1400,7 +1453,7 @@
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -1408,7 +1461,7 @@
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
@@ -1416,7 +1469,7 @@
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -1424,7 +1477,7 @@
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -1432,7 +1485,7 @@
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
@@ -1440,7 +1493,7 @@
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
@@ -1448,7 +1501,7 @@
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
@@ -1456,7 +1509,7 @@
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
@@ -1464,7 +1517,7 @@
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
@@ -1472,7 +1525,7 @@
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
@@ -1480,7 +1533,7 @@
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
@@ -1488,7 +1541,7 @@
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
@@ -1496,7 +1549,7 @@
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -1504,7 +1557,7 @@
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -1512,7 +1565,7 @@
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -1520,7 +1573,7 @@
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
@@ -1528,7 +1581,7 @@
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
@@ -1536,7 +1589,7 @@
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
@@ -1544,7 +1597,7 @@
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -1552,7 +1605,7 @@
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
@@ -1560,7 +1613,7 @@
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
@@ -1568,7 +1621,7 @@
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -1576,7 +1629,7 @@
       <c r="H122" s="4"/>
       <c r="I122" s="4"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
@@ -1584,7 +1637,7 @@
       <c r="H123" s="4"/>
       <c r="I123" s="4"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
@@ -1592,7 +1645,7 @@
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
@@ -1600,7 +1653,7 @@
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
@@ -1608,7 +1661,7 @@
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
@@ -1616,7 +1669,7 @@
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
@@ -1624,7 +1677,7 @@
       <c r="H128" s="4"/>
       <c r="I128" s="4"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -1632,7 +1685,7 @@
       <c r="H129" s="4"/>
       <c r="I129" s="4"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
@@ -1640,7 +1693,7 @@
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
@@ -1648,7 +1701,7 @@
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
@@ -1656,7 +1709,7 @@
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
@@ -1664,7 +1717,7 @@
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
@@ -1672,7 +1725,7 @@
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
@@ -1680,7 +1733,7 @@
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
@@ -1688,7 +1741,7 @@
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
@@ -1696,7 +1749,7 @@
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
@@ -1704,7 +1757,7 @@
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
@@ -1712,7 +1765,7 @@
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
@@ -1720,7 +1773,7 @@
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
@@ -1728,7 +1781,7 @@
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
@@ -1736,7 +1789,7 @@
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
@@ -1744,7 +1797,7 @@
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
@@ -1752,7 +1805,7 @@
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
@@ -1760,7 +1813,7 @@
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
@@ -1768,7 +1821,7 @@
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
@@ -1776,7 +1829,7 @@
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
@@ -1784,7 +1837,7 @@
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
@@ -1792,7 +1845,7 @@
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="4"/>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
@@ -1800,7 +1853,7 @@
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="4"/>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
@@ -1808,7 +1861,7 @@
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
@@ -1816,7 +1869,7 @@
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
@@ -1824,7 +1877,7 @@
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="4"/>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
@@ -1832,7 +1885,7 @@
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="4"/>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
@@ -1840,7 +1893,7 @@
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="4"/>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
@@ -1848,7 +1901,7 @@
       <c r="H156" s="4"/>
       <c r="I156" s="4"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="4"/>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
@@ -1856,7 +1909,7 @@
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
@@ -1864,7 +1917,7 @@
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
@@ -1872,7 +1925,7 @@
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="4"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
@@ -1880,7 +1933,7 @@
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
@@ -1888,7 +1941,7 @@
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="4"/>
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
@@ -1896,7 +1949,7 @@
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="4"/>
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
@@ -1904,7 +1957,7 @@
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="4"/>
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
@@ -1912,7 +1965,7 @@
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="4"/>
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
@@ -1920,7 +1973,7 @@
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="4"/>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
@@ -1928,7 +1981,7 @@
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="4"/>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
@@ -1936,7 +1989,7 @@
       <c r="H167" s="4"/>
       <c r="I167" s="4"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="4"/>
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
@@ -1944,7 +1997,7 @@
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="4"/>
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
@@ -1952,7 +2005,7 @@
       <c r="H169" s="4"/>
       <c r="I169" s="4"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="4"/>
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
@@ -1960,7 +2013,7 @@
       <c r="H170" s="4"/>
       <c r="I170" s="4"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
@@ -1968,7 +2021,7 @@
       <c r="H171" s="4"/>
       <c r="I171" s="4"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
@@ -1976,7 +2029,7 @@
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="4"/>
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
@@ -1984,7 +2037,7 @@
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="4"/>
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
@@ -1992,7 +2045,7 @@
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="4"/>
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
@@ -2000,7 +2053,7 @@
       <c r="H175" s="4"/>
       <c r="I175" s="4"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="4"/>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
@@ -2008,7 +2061,7 @@
       <c r="H176" s="4"/>
       <c r="I176" s="4"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="4"/>
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
@@ -2016,7 +2069,7 @@
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="4"/>
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
@@ -2024,7 +2077,7 @@
       <c r="H178" s="4"/>
       <c r="I178" s="4"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="4"/>
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
@@ -2032,7 +2085,7 @@
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
@@ -2040,7 +2093,7 @@
       <c r="H180" s="4"/>
       <c r="I180" s="4"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="4"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
@@ -2048,7 +2101,7 @@
       <c r="H181" s="4"/>
       <c r="I181" s="4"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
@@ -2056,7 +2109,7 @@
       <c r="H182" s="4"/>
       <c r="I182" s="4"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="4"/>
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
@@ -2064,7 +2117,7 @@
       <c r="H183" s="4"/>
       <c r="I183" s="4"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="4"/>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
@@ -2072,7 +2125,7 @@
       <c r="H184" s="4"/>
       <c r="I184" s="4"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="4"/>
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
@@ -2080,7 +2133,7 @@
       <c r="H185" s="4"/>
       <c r="I185" s="4"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
@@ -2088,7 +2141,7 @@
       <c r="H186" s="4"/>
       <c r="I186" s="4"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="4"/>
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
@@ -2096,7 +2149,7 @@
       <c r="H187" s="4"/>
       <c r="I187" s="4"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="4"/>
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
@@ -2104,7 +2157,7 @@
       <c r="H188" s="4"/>
       <c r="I188" s="4"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="4"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
@@ -2112,7 +2165,7 @@
       <c r="H189" s="4"/>
       <c r="I189" s="4"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="4"/>
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
@@ -2120,7 +2173,7 @@
       <c r="H190" s="4"/>
       <c r="I190" s="4"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="4"/>
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
@@ -2128,7 +2181,7 @@
       <c r="H191" s="4"/>
       <c r="I191" s="4"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="4"/>
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
@@ -2136,7 +2189,7 @@
       <c r="H192" s="4"/>
       <c r="I192" s="4"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="4"/>
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
@@ -2144,7 +2197,7 @@
       <c r="H193" s="4"/>
       <c r="I193" s="4"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="4"/>
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
@@ -2152,7 +2205,7 @@
       <c r="H194" s="4"/>
       <c r="I194" s="4"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
@@ -2160,7 +2213,7 @@
       <c r="H195" s="4"/>
       <c r="I195" s="4"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="4"/>
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
@@ -2168,7 +2221,7 @@
       <c r="H196" s="4"/>
       <c r="I196" s="4"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="4"/>
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
@@ -2176,7 +2229,7 @@
       <c r="H197" s="4"/>
       <c r="I197" s="4"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="4"/>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
@@ -2184,7 +2237,7 @@
       <c r="H198" s="4"/>
       <c r="I198" s="4"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="4"/>
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
@@ -2192,7 +2245,7 @@
       <c r="H199" s="4"/>
       <c r="I199" s="4"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="4"/>
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
@@ -2200,7 +2253,7 @@
       <c r="H200" s="4"/>
       <c r="I200" s="4"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="4"/>
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
@@ -2208,7 +2261,7 @@
       <c r="H201" s="4"/>
       <c r="I201" s="4"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="4"/>
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
@@ -2216,7 +2269,7 @@
       <c r="H202" s="4"/>
       <c r="I202" s="4"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="4"/>
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
@@ -2224,7 +2277,7 @@
       <c r="H203" s="4"/>
       <c r="I203" s="4"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="4"/>
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
@@ -2232,7 +2285,7 @@
       <c r="H204" s="4"/>
       <c r="I204" s="4"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="4"/>
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
@@ -2240,7 +2293,7 @@
       <c r="H205" s="4"/>
       <c r="I205" s="4"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="4"/>
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
@@ -2248,7 +2301,7 @@
       <c r="H206" s="4"/>
       <c r="I206" s="4"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="4"/>
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
@@ -2256,7 +2309,7 @@
       <c r="H207" s="4"/>
       <c r="I207" s="4"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="4"/>
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
@@ -2264,7 +2317,7 @@
       <c r="H208" s="4"/>
       <c r="I208" s="4"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="4"/>
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
@@ -2272,7 +2325,7 @@
       <c r="H209" s="4"/>
       <c r="I209" s="4"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="4"/>
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
@@ -2280,7 +2333,7 @@
       <c r="H210" s="4"/>
       <c r="I210" s="4"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="4"/>
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
@@ -2288,7 +2341,7 @@
       <c r="H211" s="4"/>
       <c r="I211" s="4"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="4"/>
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
@@ -2296,7 +2349,7 @@
       <c r="H212" s="4"/>
       <c r="I212" s="4"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
@@ -2304,7 +2357,7 @@
       <c r="H213" s="4"/>
       <c r="I213" s="4"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="4"/>
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
@@ -2312,7 +2365,7 @@
       <c r="H214" s="4"/>
       <c r="I214" s="4"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="4"/>
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
@@ -2320,7 +2373,7 @@
       <c r="H215" s="4"/>
       <c r="I215" s="4"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="4"/>
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
@@ -2328,7 +2381,7 @@
       <c r="H216" s="4"/>
       <c r="I216" s="4"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="4"/>
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
@@ -2336,7 +2389,7 @@
       <c r="H217" s="4"/>
       <c r="I217" s="4"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="4"/>
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
@@ -2344,7 +2397,7 @@
       <c r="H218" s="4"/>
       <c r="I218" s="4"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
@@ -2352,7 +2405,7 @@
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
@@ -2360,7 +2413,7 @@
       <c r="H220" s="4"/>
       <c r="I220" s="4"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="4"/>
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
@@ -2368,7 +2421,7 @@
       <c r="H221" s="4"/>
       <c r="I221" s="4"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="4"/>
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
@@ -2376,7 +2429,7 @@
       <c r="H222" s="4"/>
       <c r="I222" s="4"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="4"/>
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
@@ -2384,7 +2437,7 @@
       <c r="H223" s="4"/>
       <c r="I223" s="4"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="4"/>
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
@@ -2392,7 +2445,7 @@
       <c r="H224" s="4"/>
       <c r="I224" s="4"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="4"/>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
@@ -2400,7 +2453,7 @@
       <c r="H225" s="4"/>
       <c r="I225" s="4"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="4"/>
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
@@ -2408,7 +2461,7 @@
       <c r="H226" s="4"/>
       <c r="I226" s="4"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="4"/>
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
@@ -2416,7 +2469,7 @@
       <c r="H227" s="4"/>
       <c r="I227" s="4"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="4"/>
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
@@ -2424,7 +2477,7 @@
       <c r="H228" s="4"/>
       <c r="I228" s="4"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="4"/>
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
@@ -2432,7 +2485,7 @@
       <c r="H229" s="4"/>
       <c r="I229" s="4"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="4"/>
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
@@ -2440,7 +2493,7 @@
       <c r="H230" s="4"/>
       <c r="I230" s="4"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="4"/>
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
@@ -2448,7 +2501,7 @@
       <c r="H231" s="4"/>
       <c r="I231" s="4"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="4"/>
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
@@ -2456,7 +2509,7 @@
       <c r="H232" s="4"/>
       <c r="I232" s="4"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" s="4"/>
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
@@ -2464,7 +2517,7 @@
       <c r="H233" s="4"/>
       <c r="I233" s="4"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="4"/>
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
@@ -2472,7 +2525,7 @@
       <c r="H234" s="4"/>
       <c r="I234" s="4"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
@@ -2480,7 +2533,7 @@
       <c r="H235" s="4"/>
       <c r="I235" s="4"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
@@ -2488,7 +2541,7 @@
       <c r="H236" s="4"/>
       <c r="I236" s="4"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
@@ -2496,7 +2549,7 @@
       <c r="H237" s="4"/>
       <c r="I237" s="4"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
@@ -2504,7 +2557,7 @@
       <c r="H238" s="4"/>
       <c r="I238" s="4"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
@@ -2512,7 +2565,7 @@
       <c r="H239" s="4"/>
       <c r="I239" s="4"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
@@ -2520,7 +2573,7 @@
       <c r="H240" s="4"/>
       <c r="I240" s="4"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
@@ -2528,7 +2581,7 @@
       <c r="H241" s="4"/>
       <c r="I241" s="4"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
@@ -2536,7 +2589,7 @@
       <c r="H242" s="4"/>
       <c r="I242" s="4"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
@@ -2544,7 +2597,7 @@
       <c r="H243" s="4"/>
       <c r="I243" s="4"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
@@ -2552,7 +2605,7 @@
       <c r="H244" s="4"/>
       <c r="I244" s="4"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
@@ -2560,7 +2613,7 @@
       <c r="H245" s="4"/>
       <c r="I245" s="4"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
@@ -2568,7 +2621,7 @@
       <c r="H246" s="4"/>
       <c r="I246" s="4"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
@@ -2576,7 +2629,7 @@
       <c r="H247" s="4"/>
       <c r="I247" s="4"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
@@ -2584,7 +2637,7 @@
       <c r="H248" s="4"/>
       <c r="I248" s="4"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
@@ -2592,7 +2645,7 @@
       <c r="H249" s="4"/>
       <c r="I249" s="4"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
@@ -2600,7 +2653,7 @@
       <c r="H250" s="4"/>
       <c r="I250" s="4"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
@@ -2608,7 +2661,7 @@
       <c r="H251" s="4"/>
       <c r="I251" s="4"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
@@ -2616,7 +2669,7 @@
       <c r="H252" s="4"/>
       <c r="I252" s="4"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
@@ -2624,7 +2677,7 @@
       <c r="H253" s="4"/>
       <c r="I253" s="4"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
@@ -2632,7 +2685,7 @@
       <c r="H254" s="4"/>
       <c r="I254" s="4"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
@@ -2640,7 +2693,7 @@
       <c r="H255" s="4"/>
       <c r="I255" s="4"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
@@ -2648,7 +2701,7 @@
       <c r="H256" s="4"/>
       <c r="I256" s="4"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
@@ -2656,7 +2709,7 @@
       <c r="H257" s="4"/>
       <c r="I257" s="4"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
@@ -2664,7 +2717,7 @@
       <c r="H258" s="4"/>
       <c r="I258" s="4"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
@@ -2672,7 +2725,7 @@
       <c r="H259" s="4"/>
       <c r="I259" s="4"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
@@ -2680,7 +2733,7 @@
       <c r="H260" s="4"/>
       <c r="I260" s="4"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
@@ -2688,7 +2741,7 @@
       <c r="H261" s="4"/>
       <c r="I261" s="4"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
@@ -2696,7 +2749,7 @@
       <c r="H262" s="4"/>
       <c r="I262" s="4"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
@@ -2704,7 +2757,7 @@
       <c r="H263" s="4"/>
       <c r="I263" s="4"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
@@ -2712,7 +2765,7 @@
       <c r="H264" s="4"/>
       <c r="I264" s="4"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
@@ -2720,7 +2773,7 @@
       <c r="H265" s="4"/>
       <c r="I265" s="4"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="4"/>
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
@@ -2728,7 +2781,7 @@
       <c r="H266" s="4"/>
       <c r="I266" s="4"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
@@ -2736,7 +2789,7 @@
       <c r="H267" s="4"/>
       <c r="I267" s="4"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
@@ -2744,7 +2797,7 @@
       <c r="H268" s="4"/>
       <c r="I268" s="4"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
@@ -2752,7 +2805,7 @@
       <c r="H269" s="4"/>
       <c r="I269" s="4"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
@@ -2760,7 +2813,7 @@
       <c r="H270" s="4"/>
       <c r="I270" s="4"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
@@ -2768,7 +2821,7 @@
       <c r="H271" s="4"/>
       <c r="I271" s="4"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
@@ -2776,7 +2829,7 @@
       <c r="H272" s="4"/>
       <c r="I272" s="4"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
@@ -2784,7 +2837,7 @@
       <c r="H273" s="4"/>
       <c r="I273" s="4"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
@@ -2792,7 +2845,7 @@
       <c r="H274" s="4"/>
       <c r="I274" s="4"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
@@ -2800,7 +2853,7 @@
       <c r="H275" s="4"/>
       <c r="I275" s="4"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
@@ -2808,7 +2861,7 @@
       <c r="H276" s="4"/>
       <c r="I276" s="4"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
@@ -2816,7 +2869,7 @@
       <c r="H277" s="4"/>
       <c r="I277" s="4"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
@@ -2824,7 +2877,7 @@
       <c r="H278" s="4"/>
       <c r="I278" s="4"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
@@ -2832,7 +2885,7 @@
       <c r="H279" s="4"/>
       <c r="I279" s="4"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
@@ -2840,7 +2893,7 @@
       <c r="H280" s="4"/>
       <c r="I280" s="4"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
@@ -2848,7 +2901,7 @@
       <c r="H281" s="4"/>
       <c r="I281" s="4"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
@@ -2856,7 +2909,7 @@
       <c r="H282" s="4"/>
       <c r="I282" s="4"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
@@ -2864,7 +2917,7 @@
       <c r="H283" s="4"/>
       <c r="I283" s="4"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
@@ -2872,7 +2925,7 @@
       <c r="H284" s="4"/>
       <c r="I284" s="4"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
@@ -2880,7 +2933,7 @@
       <c r="H285" s="4"/>
       <c r="I285" s="4"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
@@ -2888,7 +2941,7 @@
       <c r="H286" s="4"/>
       <c r="I286" s="4"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
@@ -2896,7 +2949,7 @@
       <c r="H287" s="4"/>
       <c r="I287" s="4"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
@@ -2904,7 +2957,7 @@
       <c r="H288" s="4"/>
       <c r="I288" s="4"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
@@ -2912,7 +2965,7 @@
       <c r="H289" s="4"/>
       <c r="I289" s="4"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
@@ -2920,7 +2973,7 @@
       <c r="H290" s="4"/>
       <c r="I290" s="4"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
@@ -2928,7 +2981,7 @@
       <c r="H291" s="4"/>
       <c r="I291" s="4"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
@@ -2936,7 +2989,7 @@
       <c r="H292" s="4"/>
       <c r="I292" s="4"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
@@ -2944,7 +2997,7 @@
       <c r="H293" s="4"/>
       <c r="I293" s="4"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
@@ -2952,7 +3005,7 @@
       <c r="H294" s="4"/>
       <c r="I294" s="4"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
@@ -2960,7 +3013,7 @@
       <c r="H295" s="4"/>
       <c r="I295" s="4"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
@@ -2968,7 +3021,7 @@
       <c r="H296" s="4"/>
       <c r="I296" s="4"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
@@ -2976,7 +3029,7 @@
       <c r="H297" s="4"/>
       <c r="I297" s="4"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
@@ -2984,7 +3037,7 @@
       <c r="H298" s="4"/>
       <c r="I298" s="4"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
@@ -2992,7 +3045,7 @@
       <c r="H299" s="4"/>
       <c r="I299" s="4"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
@@ -3000,7 +3053,7 @@
       <c r="H300" s="4"/>
       <c r="I300" s="4"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
@@ -3008,7 +3061,7 @@
       <c r="H301" s="4"/>
       <c r="I301" s="4"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
@@ -3016,7 +3069,7 @@
       <c r="H302" s="4"/>
       <c r="I302" s="4"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
@@ -3024,7 +3077,7 @@
       <c r="H303" s="4"/>
       <c r="I303" s="4"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
@@ -3032,7 +3085,7 @@
       <c r="H304" s="4"/>
       <c r="I304" s="4"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
@@ -3040,7 +3093,7 @@
       <c r="H305" s="4"/>
       <c r="I305" s="4"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
@@ -3048,7 +3101,7 @@
       <c r="H306" s="4"/>
       <c r="I306" s="4"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
@@ -3056,7 +3109,7 @@
       <c r="H307" s="4"/>
       <c r="I307" s="4"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
@@ -3064,7 +3117,7 @@
       <c r="H308" s="4"/>
       <c r="I308" s="4"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
@@ -3072,7 +3125,7 @@
       <c r="H309" s="4"/>
       <c r="I309" s="4"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
@@ -3080,7 +3133,7 @@
       <c r="H310" s="4"/>
       <c r="I310" s="4"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
@@ -3088,7 +3141,7 @@
       <c r="H311" s="4"/>
       <c r="I311" s="4"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
@@ -3096,7 +3149,7 @@
       <c r="H312" s="4"/>
       <c r="I312" s="4"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
@@ -3104,7 +3157,7 @@
       <c r="H313" s="4"/>
       <c r="I313" s="4"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314" s="4"/>
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
@@ -3112,7 +3165,7 @@
       <c r="H314" s="4"/>
       <c r="I314" s="4"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315" s="4"/>
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
@@ -3120,7 +3173,7 @@
       <c r="H315" s="4"/>
       <c r="I315" s="4"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
@@ -3128,7 +3181,7 @@
       <c r="H316" s="4"/>
       <c r="I316" s="4"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
@@ -3136,7 +3189,7 @@
       <c r="H317" s="4"/>
       <c r="I317" s="4"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
@@ -3144,7 +3197,7 @@
       <c r="H318" s="4"/>
       <c r="I318" s="4"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
@@ -3152,7 +3205,7 @@
       <c r="H319" s="4"/>
       <c r="I319" s="4"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
@@ -3160,7 +3213,7 @@
       <c r="H320" s="4"/>
       <c r="I320" s="4"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A321" s="4"/>
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
@@ -3168,7 +3221,7 @@
       <c r="H321" s="4"/>
       <c r="I321" s="4"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
@@ -3176,7 +3229,7 @@
       <c r="H322" s="4"/>
       <c r="I322" s="4"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
@@ -3184,7 +3237,7 @@
       <c r="H323" s="4"/>
       <c r="I323" s="4"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A324" s="4"/>
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
@@ -3192,7 +3245,7 @@
       <c r="H324" s="4"/>
       <c r="I324" s="4"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
@@ -3200,7 +3253,7 @@
       <c r="H325" s="4"/>
       <c r="I325" s="4"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A326" s="4"/>
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
@@ -3208,7 +3261,7 @@
       <c r="H326" s="4"/>
       <c r="I326" s="4"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A327" s="4"/>
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
@@ -3216,7 +3269,7 @@
       <c r="H327" s="4"/>
       <c r="I327" s="4"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A328" s="4"/>
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
@@ -3224,7 +3277,7 @@
       <c r="H328" s="4"/>
       <c r="I328" s="4"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
@@ -3232,7 +3285,7 @@
       <c r="H329" s="4"/>
       <c r="I329" s="4"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
@@ -3240,7 +3293,7 @@
       <c r="H330" s="4"/>
       <c r="I330" s="4"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A331" s="4"/>
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
@@ -3248,7 +3301,7 @@
       <c r="H331" s="4"/>
       <c r="I331" s="4"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A332" s="4"/>
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
@@ -3256,7 +3309,7 @@
       <c r="H332" s="4"/>
       <c r="I332" s="4"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A333" s="4"/>
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
@@ -3264,7 +3317,7 @@
       <c r="H333" s="4"/>
       <c r="I333" s="4"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A334" s="4"/>
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
@@ -3272,7 +3325,7 @@
       <c r="H334" s="4"/>
       <c r="I334" s="4"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A335" s="4"/>
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
@@ -3280,7 +3333,7 @@
       <c r="H335" s="4"/>
       <c r="I335" s="4"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
@@ -3288,7 +3341,7 @@
       <c r="H336" s="4"/>
       <c r="I336" s="4"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A337" s="4"/>
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
@@ -3296,7 +3349,7 @@
       <c r="H337" s="4"/>
       <c r="I337" s="4"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A338" s="4"/>
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
@@ -3304,7 +3357,7 @@
       <c r="H338" s="4"/>
       <c r="I338" s="4"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A339" s="4"/>
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
@@ -3312,7 +3365,7 @@
       <c r="H339" s="4"/>
       <c r="I339" s="4"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A340" s="4"/>
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
@@ -3320,7 +3373,7 @@
       <c r="H340" s="4"/>
       <c r="I340" s="4"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
@@ -3328,7 +3381,7 @@
       <c r="H341" s="4"/>
       <c r="I341" s="4"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
@@ -3336,7 +3389,7 @@
       <c r="H342" s="4"/>
       <c r="I342" s="4"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
@@ -3344,7 +3397,7 @@
       <c r="H343" s="4"/>
       <c r="I343" s="4"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A344" s="4"/>
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
@@ -3352,7 +3405,7 @@
       <c r="H344" s="4"/>
       <c r="I344" s="4"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
@@ -3360,7 +3413,7 @@
       <c r="H345" s="4"/>
       <c r="I345" s="4"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A346" s="4"/>
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
@@ -3368,7 +3421,7 @@
       <c r="H346" s="4"/>
       <c r="I346" s="4"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A347" s="4"/>
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
@@ -3376,7 +3429,7 @@
       <c r="H347" s="4"/>
       <c r="I347" s="4"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
@@ -3384,7 +3437,7 @@
       <c r="H348" s="4"/>
       <c r="I348" s="4"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A349" s="4"/>
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
@@ -3392,7 +3445,7 @@
       <c r="H349" s="4"/>
       <c r="I349" s="4"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A350" s="4"/>
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
@@ -3400,7 +3453,7 @@
       <c r="H350" s="4"/>
       <c r="I350" s="4"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
@@ -3408,7 +3461,7 @@
       <c r="H351" s="4"/>
       <c r="I351" s="4"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A352" s="4"/>
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
@@ -3416,7 +3469,7 @@
       <c r="H352" s="4"/>
       <c r="I352" s="4"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A353" s="4"/>
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
@@ -3424,7 +3477,7 @@
       <c r="H353" s="4"/>
       <c r="I353" s="4"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A354" s="4"/>
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
@@ -3432,7 +3485,7 @@
       <c r="H354" s="4"/>
       <c r="I354" s="4"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
@@ -3440,7 +3493,7 @@
       <c r="H355" s="4"/>
       <c r="I355" s="4"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A356" s="4"/>
       <c r="C356" s="4"/>
       <c r="D356" s="4"/>
@@ -3448,7 +3501,7 @@
       <c r="H356" s="4"/>
       <c r="I356" s="4"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
@@ -3456,7 +3509,7 @@
       <c r="H357" s="4"/>
       <c r="I357" s="4"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
@@ -3464,7 +3517,7 @@
       <c r="H358" s="4"/>
       <c r="I358" s="4"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
@@ -3472,7 +3525,7 @@
       <c r="H359" s="4"/>
       <c r="I359" s="4"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
@@ -3480,7 +3533,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
@@ -3488,7 +3541,7 @@
       <c r="H361" s="4"/>
       <c r="I361" s="4"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
@@ -3496,7 +3549,7 @@
       <c r="H362" s="4"/>
       <c r="I362" s="4"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
@@ -3504,7 +3557,7 @@
       <c r="H363" s="4"/>
       <c r="I363" s="4"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
@@ -3512,7 +3565,7 @@
       <c r="H364" s="4"/>
       <c r="I364" s="4"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
@@ -3520,7 +3573,7 @@
       <c r="H365" s="4"/>
       <c r="I365" s="4"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
@@ -3528,7 +3581,7 @@
       <c r="H366" s="4"/>
       <c r="I366" s="4"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A367" s="4"/>
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
@@ -3536,7 +3589,7 @@
       <c r="H367" s="4"/>
       <c r="I367" s="4"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
@@ -3544,7 +3597,7 @@
       <c r="H368" s="4"/>
       <c r="I368" s="4"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
@@ -3552,7 +3605,7 @@
       <c r="H369" s="4"/>
       <c r="I369" s="4"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
@@ -3560,7 +3613,7 @@
       <c r="H370" s="4"/>
       <c r="I370" s="4"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A371" s="4"/>
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
@@ -3568,7 +3621,7 @@
       <c r="H371" s="4"/>
       <c r="I371" s="4"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A372" s="4"/>
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
@@ -3576,7 +3629,7 @@
       <c r="H372" s="4"/>
       <c r="I372" s="4"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A373" s="4"/>
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
@@ -3584,7 +3637,7 @@
       <c r="H373" s="4"/>
       <c r="I373" s="4"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A374" s="4"/>
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
@@ -3592,7 +3645,7 @@
       <c r="H374" s="4"/>
       <c r="I374" s="4"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
@@ -3600,7 +3653,7 @@
       <c r="H375" s="4"/>
       <c r="I375" s="4"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
@@ -3608,7 +3661,7 @@
       <c r="H376" s="4"/>
       <c r="I376" s="4"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A377" s="4"/>
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
@@ -3616,7 +3669,7 @@
       <c r="H377" s="4"/>
       <c r="I377" s="4"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A378" s="4"/>
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
@@ -3624,7 +3677,7 @@
       <c r="H378" s="4"/>
       <c r="I378" s="4"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A379" s="4"/>
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
@@ -3632,7 +3685,7 @@
       <c r="H379" s="4"/>
       <c r="I379" s="4"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A380" s="4"/>
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
@@ -3640,7 +3693,7 @@
       <c r="H380" s="4"/>
       <c r="I380" s="4"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A381" s="4"/>
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
@@ -3648,7 +3701,7 @@
       <c r="H381" s="4"/>
       <c r="I381" s="4"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A382" s="4"/>
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
@@ -3656,7 +3709,7 @@
       <c r="H382" s="4"/>
       <c r="I382" s="4"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A383" s="4"/>
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
@@ -3664,7 +3717,7 @@
       <c r="H383" s="4"/>
       <c r="I383" s="4"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A384" s="4"/>
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
@@ -3672,7 +3725,7 @@
       <c r="H384" s="4"/>
       <c r="I384" s="4"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A385" s="4"/>
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
@@ -3680,7 +3733,7 @@
       <c r="H385" s="4"/>
       <c r="I385" s="4"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A386" s="4"/>
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
@@ -3688,7 +3741,7 @@
       <c r="H386" s="4"/>
       <c r="I386" s="4"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
@@ -3696,7 +3749,7 @@
       <c r="H387" s="4"/>
       <c r="I387" s="4"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A388" s="4"/>
       <c r="C388" s="4"/>
       <c r="D388" s="4"/>
@@ -3704,7 +3757,7 @@
       <c r="H388" s="4"/>
       <c r="I388" s="4"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A389" s="4"/>
       <c r="C389" s="4"/>
       <c r="D389" s="4"/>
@@ -3712,7 +3765,7 @@
       <c r="H389" s="4"/>
       <c r="I389" s="4"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
@@ -3720,7 +3773,7 @@
       <c r="H390" s="4"/>
       <c r="I390" s="4"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
       <c r="C391" s="4"/>
       <c r="D391" s="4"/>
@@ -3728,7 +3781,7 @@
       <c r="H391" s="4"/>
       <c r="I391" s="4"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A392" s="4"/>
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
@@ -3736,7 +3789,7 @@
       <c r="H392" s="4"/>
       <c r="I392" s="4"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A393" s="4"/>
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
@@ -3744,7 +3797,7 @@
       <c r="H393" s="4"/>
       <c r="I393" s="4"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
       <c r="C394" s="4"/>
       <c r="D394" s="4"/>
@@ -3752,7 +3805,7 @@
       <c r="H394" s="4"/>
       <c r="I394" s="4"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A395" s="4"/>
       <c r="C395" s="4"/>
       <c r="D395" s="4"/>
@@ -3760,7 +3813,7 @@
       <c r="H395" s="4"/>
       <c r="I395" s="4"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A396" s="4"/>
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
@@ -3768,7 +3821,7 @@
       <c r="H396" s="4"/>
       <c r="I396" s="4"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A397" s="4"/>
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
@@ -3776,7 +3829,7 @@
       <c r="H397" s="4"/>
       <c r="I397" s="4"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A398" s="4"/>
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
@@ -3784,7 +3837,7 @@
       <c r="H398" s="4"/>
       <c r="I398" s="4"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A399" s="4"/>
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
@@ -3792,7 +3845,7 @@
       <c r="H399" s="4"/>
       <c r="I399" s="4"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A400" s="4"/>
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
@@ -3800,7 +3853,7 @@
       <c r="H400" s="4"/>
       <c r="I400" s="4"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A401" s="4"/>
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
@@ -3808,7 +3861,7 @@
       <c r="H401" s="4"/>
       <c r="I401" s="4"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A402" s="4"/>
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
@@ -3816,7 +3869,7 @@
       <c r="H402" s="4"/>
       <c r="I402" s="4"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A403" s="4"/>
       <c r="C403" s="4"/>
       <c r="D403" s="4"/>
@@ -3824,7 +3877,7 @@
       <c r="H403" s="4"/>
       <c r="I403" s="4"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A404" s="4"/>
       <c r="C404" s="4"/>
       <c r="D404" s="4"/>
@@ -3832,7 +3885,7 @@
       <c r="H404" s="4"/>
       <c r="I404" s="4"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
@@ -3840,7 +3893,7 @@
       <c r="H405" s="4"/>
       <c r="I405" s="4"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A406" s="4"/>
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
@@ -3848,7 +3901,7 @@
       <c r="H406" s="4"/>
       <c r="I406" s="4"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
@@ -3856,7 +3909,7 @@
       <c r="H407" s="4"/>
       <c r="I407" s="4"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A408" s="4"/>
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
@@ -3864,7 +3917,7 @@
       <c r="H408" s="4"/>
       <c r="I408" s="4"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A409" s="4"/>
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
@@ -3872,7 +3925,7 @@
       <c r="H409" s="4"/>
       <c r="I409" s="4"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
       <c r="C410" s="4"/>
       <c r="D410" s="4"/>
@@ -3880,7 +3933,7 @@
       <c r="H410" s="4"/>
       <c r="I410" s="4"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A411" s="4"/>
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
@@ -3888,7 +3941,7 @@
       <c r="H411" s="4"/>
       <c r="I411" s="4"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A412" s="4"/>
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
@@ -3896,7 +3949,7 @@
       <c r="H412" s="4"/>
       <c r="I412" s="4"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A413" s="4"/>
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
@@ -3904,7 +3957,7 @@
       <c r="H413" s="4"/>
       <c r="I413" s="4"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A414" s="4"/>
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
@@ -3912,7 +3965,7 @@
       <c r="H414" s="4"/>
       <c r="I414" s="4"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A415" s="4"/>
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
@@ -3920,7 +3973,7 @@
       <c r="H415" s="4"/>
       <c r="I415" s="4"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A416" s="4"/>
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
@@ -3928,7 +3981,7 @@
       <c r="H416" s="4"/>
       <c r="I416" s="4"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A417" s="4"/>
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
@@ -3936,7 +3989,7 @@
       <c r="H417" s="4"/>
       <c r="I417" s="4"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A418" s="4"/>
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
@@ -3944,7 +3997,7 @@
       <c r="H418" s="4"/>
       <c r="I418" s="4"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
@@ -3952,7 +4005,7 @@
       <c r="H419" s="4"/>
       <c r="I419" s="4"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A420" s="4"/>
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
@@ -3960,7 +4013,7 @@
       <c r="H420" s="4"/>
       <c r="I420" s="4"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="C421" s="4"/>
       <c r="D421" s="4"/>
@@ -3968,7 +4021,7 @@
       <c r="H421" s="4"/>
       <c r="I421" s="4"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
@@ -3976,7 +4029,7 @@
       <c r="H422" s="4"/>
       <c r="I422" s="4"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A423" s="4"/>
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
@@ -3984,7 +4037,7 @@
       <c r="H423" s="4"/>
       <c r="I423" s="4"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A424" s="4"/>
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
@@ -3992,7 +4045,7 @@
       <c r="H424" s="4"/>
       <c r="I424" s="4"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A425" s="4"/>
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
@@ -4000,7 +4053,7 @@
       <c r="H425" s="4"/>
       <c r="I425" s="4"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
@@ -4008,7 +4061,7 @@
       <c r="H426" s="4"/>
       <c r="I426" s="4"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A427" s="4"/>
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
@@ -4016,7 +4069,7 @@
       <c r="H427" s="4"/>
       <c r="I427" s="4"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
@@ -4024,7 +4077,7 @@
       <c r="H428" s="4"/>
       <c r="I428" s="4"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A429" s="4"/>
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
@@ -4032,7 +4085,7 @@
       <c r="H429" s="4"/>
       <c r="I429" s="4"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A430" s="4"/>
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
@@ -4040,7 +4093,7 @@
       <c r="H430" s="4"/>
       <c r="I430" s="4"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A431" s="4"/>
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
@@ -4048,7 +4101,7 @@
       <c r="H431" s="4"/>
       <c r="I431" s="4"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A432" s="4"/>
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
@@ -4056,7 +4109,7 @@
       <c r="H432" s="4"/>
       <c r="I432" s="4"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A433" s="4"/>
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
@@ -4064,7 +4117,7 @@
       <c r="H433" s="4"/>
       <c r="I433" s="4"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A434" s="4"/>
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
@@ -4072,7 +4125,7 @@
       <c r="H434" s="4"/>
       <c r="I434" s="4"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A435" s="4"/>
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
@@ -4080,7 +4133,7 @@
       <c r="H435" s="4"/>
       <c r="I435" s="4"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A436" s="4"/>
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
@@ -4088,7 +4141,7 @@
       <c r="H436" s="4"/>
       <c r="I436" s="4"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
@@ -4096,7 +4149,7 @@
       <c r="H437" s="4"/>
       <c r="I437" s="4"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A438" s="4"/>
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
@@ -4104,7 +4157,7 @@
       <c r="H438" s="4"/>
       <c r="I438" s="4"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
@@ -4112,7 +4165,7 @@
       <c r="H439" s="4"/>
       <c r="I439" s="4"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
@@ -4120,7 +4173,7 @@
       <c r="H440" s="4"/>
       <c r="I440" s="4"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A441" s="4"/>
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
@@ -4128,7 +4181,7 @@
       <c r="H441" s="4"/>
       <c r="I441" s="4"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A442" s="4"/>
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
@@ -4136,7 +4189,7 @@
       <c r="H442" s="4"/>
       <c r="I442" s="4"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A443" s="4"/>
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
@@ -4144,7 +4197,7 @@
       <c r="H443" s="4"/>
       <c r="I443" s="4"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A444" s="4"/>
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
@@ -4152,7 +4205,7 @@
       <c r="H444" s="4"/>
       <c r="I444" s="4"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A445" s="4"/>
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
@@ -4160,7 +4213,7 @@
       <c r="H445" s="4"/>
       <c r="I445" s="4"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A446" s="4"/>
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
@@ -4168,7 +4221,7 @@
       <c r="H446" s="4"/>
       <c r="I446" s="4"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A447" s="4"/>
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
@@ -4176,7 +4229,7 @@
       <c r="H447" s="4"/>
       <c r="I447" s="4"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A448" s="4"/>
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
@@ -4184,7 +4237,7 @@
       <c r="H448" s="4"/>
       <c r="I448" s="4"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A449" s="4"/>
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
@@ -4192,7 +4245,7 @@
       <c r="H449" s="4"/>
       <c r="I449" s="4"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A450" s="4"/>
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
@@ -4200,7 +4253,7 @@
       <c r="H450" s="4"/>
       <c r="I450" s="4"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
@@ -4208,7 +4261,7 @@
       <c r="H451" s="4"/>
       <c r="I451" s="4"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A452" s="4"/>
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
@@ -4216,7 +4269,7 @@
       <c r="H452" s="4"/>
       <c r="I452" s="4"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A453" s="4"/>
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
@@ -4224,7 +4277,7 @@
       <c r="H453" s="4"/>
       <c r="I453" s="4"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A454" s="4"/>
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
@@ -4232,7 +4285,7 @@
       <c r="H454" s="4"/>
       <c r="I454" s="4"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A455" s="4"/>
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
@@ -4240,7 +4293,7 @@
       <c r="H455" s="4"/>
       <c r="I455" s="4"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A456" s="4"/>
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
@@ -4248,7 +4301,7 @@
       <c r="H456" s="4"/>
       <c r="I456" s="4"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A457" s="4"/>
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
@@ -4256,7 +4309,7 @@
       <c r="H457" s="4"/>
       <c r="I457" s="4"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A458" s="4"/>
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
@@ -4264,7 +4317,7 @@
       <c r="H458" s="4"/>
       <c r="I458" s="4"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A459" s="4"/>
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
@@ -4272,7 +4325,7 @@
       <c r="H459" s="4"/>
       <c r="I459" s="4"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A460" s="4"/>
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
@@ -4280,7 +4333,7 @@
       <c r="H460" s="4"/>
       <c r="I460" s="4"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A461" s="4"/>
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
@@ -4288,7 +4341,7 @@
       <c r="H461" s="4"/>
       <c r="I461" s="4"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A462" s="4"/>
       <c r="C462" s="4"/>
       <c r="D462" s="4"/>
@@ -4296,7 +4349,7 @@
       <c r="H462" s="4"/>
       <c r="I462" s="4"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A463" s="4"/>
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
@@ -4304,7 +4357,7 @@
       <c r="H463" s="4"/>
       <c r="I463" s="4"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A464" s="4"/>
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
@@ -4312,7 +4365,7 @@
       <c r="H464" s="4"/>
       <c r="I464" s="4"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A465" s="4"/>
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
@@ -4320,7 +4373,7 @@
       <c r="H465" s="4"/>
       <c r="I465" s="4"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A466" s="4"/>
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
@@ -4328,7 +4381,7 @@
       <c r="H466" s="4"/>
       <c r="I466" s="4"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A467" s="4"/>
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
@@ -4336,7 +4389,7 @@
       <c r="H467" s="4"/>
       <c r="I467" s="4"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
@@ -4344,7 +4397,7 @@
       <c r="H468" s="4"/>
       <c r="I468" s="4"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A469" s="4"/>
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
@@ -4352,7 +4405,7 @@
       <c r="H469" s="4"/>
       <c r="I469" s="4"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A470" s="4"/>
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
@@ -4360,7 +4413,7 @@
       <c r="H470" s="4"/>
       <c r="I470" s="4"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A471" s="4"/>
       <c r="C471" s="4"/>
       <c r="D471" s="4"/>
@@ -4368,7 +4421,7 @@
       <c r="H471" s="4"/>
       <c r="I471" s="4"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A472" s="4"/>
       <c r="C472" s="4"/>
       <c r="D472" s="4"/>
@@ -4376,7 +4429,7 @@
       <c r="H472" s="4"/>
       <c r="I472" s="4"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A473" s="4"/>
       <c r="C473" s="4"/>
       <c r="D473" s="4"/>
@@ -4384,7 +4437,7 @@
       <c r="H473" s="4"/>
       <c r="I473" s="4"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A474" s="4"/>
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
@@ -4392,7 +4445,7 @@
       <c r="H474" s="4"/>
       <c r="I474" s="4"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A475" s="4"/>
       <c r="C475" s="4"/>
       <c r="D475" s="4"/>
@@ -4400,7 +4453,7 @@
       <c r="H475" s="4"/>
       <c r="I475" s="4"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A476" s="4"/>
       <c r="C476" s="4"/>
       <c r="D476" s="4"/>
@@ -4408,7 +4461,7 @@
       <c r="H476" s="4"/>
       <c r="I476" s="4"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A477" s="4"/>
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
@@ -4416,7 +4469,7 @@
       <c r="H477" s="4"/>
       <c r="I477" s="4"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A478" s="4"/>
       <c r="C478" s="4"/>
       <c r="D478" s="4"/>
@@ -4424,7 +4477,7 @@
       <c r="H478" s="4"/>
       <c r="I478" s="4"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A479" s="4"/>
       <c r="C479" s="4"/>
       <c r="D479" s="4"/>
@@ -4432,7 +4485,7 @@
       <c r="H479" s="4"/>
       <c r="I479" s="4"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A480" s="4"/>
       <c r="C480" s="4"/>
       <c r="D480" s="4"/>
@@ -4440,7 +4493,7 @@
       <c r="H480" s="4"/>
       <c r="I480" s="4"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A481" s="4"/>
       <c r="C481" s="4"/>
       <c r="D481" s="4"/>
@@ -4448,7 +4501,7 @@
       <c r="H481" s="4"/>
       <c r="I481" s="4"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A482" s="4"/>
       <c r="C482" s="4"/>
       <c r="D482" s="4"/>
@@ -4456,7 +4509,7 @@
       <c r="H482" s="4"/>
       <c r="I482" s="4"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A483" s="4"/>
       <c r="C483" s="4"/>
       <c r="D483" s="4"/>
@@ -4464,7 +4517,7 @@
       <c r="H483" s="4"/>
       <c r="I483" s="4"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A484" s="4"/>
       <c r="C484" s="4"/>
       <c r="D484" s="4"/>
@@ -4472,7 +4525,7 @@
       <c r="H484" s="4"/>
       <c r="I484" s="4"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A485" s="4"/>
       <c r="C485" s="4"/>
       <c r="D485" s="4"/>
@@ -4480,7 +4533,7 @@
       <c r="H485" s="4"/>
       <c r="I485" s="4"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A486" s="4"/>
       <c r="C486" s="4"/>
       <c r="D486" s="4"/>
@@ -4488,7 +4541,7 @@
       <c r="H486" s="4"/>
       <c r="I486" s="4"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A487" s="4"/>
       <c r="C487" s="4"/>
       <c r="D487" s="4"/>
@@ -4496,7 +4549,7 @@
       <c r="H487" s="4"/>
       <c r="I487" s="4"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A488" s="4"/>
       <c r="C488" s="4"/>
       <c r="D488" s="4"/>
@@ -4504,7 +4557,7 @@
       <c r="H488" s="4"/>
       <c r="I488" s="4"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A489" s="4"/>
       <c r="C489" s="4"/>
       <c r="D489" s="4"/>
@@ -4512,7 +4565,7 @@
       <c r="H489" s="4"/>
       <c r="I489" s="4"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A490" s="4"/>
       <c r="C490" s="4"/>
       <c r="D490" s="4"/>
@@ -4520,7 +4573,7 @@
       <c r="H490" s="4"/>
       <c r="I490" s="4"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A491" s="4"/>
       <c r="C491" s="4"/>
       <c r="D491" s="4"/>
@@ -4528,7 +4581,7 @@
       <c r="H491" s="4"/>
       <c r="I491" s="4"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A492" s="4"/>
       <c r="C492" s="4"/>
       <c r="D492" s="4"/>
@@ -4536,7 +4589,7 @@
       <c r="H492" s="4"/>
       <c r="I492" s="4"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A493" s="4"/>
       <c r="C493" s="4"/>
       <c r="D493" s="4"/>
@@ -4544,7 +4597,7 @@
       <c r="H493" s="4"/>
       <c r="I493" s="4"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A494" s="4"/>
       <c r="C494" s="4"/>
       <c r="D494" s="4"/>
@@ -4552,7 +4605,7 @@
       <c r="H494" s="4"/>
       <c r="I494" s="4"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A495" s="4"/>
       <c r="C495" s="4"/>
       <c r="D495" s="4"/>
@@ -4560,7 +4613,7 @@
       <c r="H495" s="4"/>
       <c r="I495" s="4"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
       <c r="C496" s="4"/>
       <c r="D496" s="4"/>
@@ -4568,7 +4621,7 @@
       <c r="H496" s="4"/>
       <c r="I496" s="4"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A497" s="4"/>
       <c r="C497" s="4"/>
       <c r="D497" s="4"/>
@@ -4576,7 +4629,7 @@
       <c r="H497" s="4"/>
       <c r="I497" s="4"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A498" s="4"/>
       <c r="C498" s="4"/>
       <c r="D498" s="4"/>
@@ -4584,7 +4637,7 @@
       <c r="H498" s="4"/>
       <c r="I498" s="4"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A499" s="4"/>
       <c r="C499" s="4"/>
       <c r="D499" s="4"/>
@@ -4592,7 +4645,7 @@
       <c r="H499" s="4"/>
       <c r="I499" s="4"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A500" s="4"/>
       <c r="C500" s="4"/>
       <c r="D500" s="4"/>
@@ -4600,7 +4653,7 @@
       <c r="H500" s="4"/>
       <c r="I500" s="4"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A501" s="4"/>
       <c r="C501" s="4"/>
       <c r="D501" s="4"/>
@@ -4608,7 +4661,7 @@
       <c r="H501" s="4"/>
       <c r="I501" s="4"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A502" s="4"/>
       <c r="C502" s="4"/>
       <c r="D502" s="4"/>
@@ -4616,7 +4669,7 @@
       <c r="H502" s="4"/>
       <c r="I502" s="4"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A503" s="4"/>
       <c r="C503" s="4"/>
       <c r="D503" s="4"/>
@@ -4624,7 +4677,7 @@
       <c r="H503" s="4"/>
       <c r="I503" s="4"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A504" s="4"/>
       <c r="C504" s="4"/>
       <c r="D504" s="4"/>
@@ -4632,7 +4685,7 @@
       <c r="H504" s="4"/>
       <c r="I504" s="4"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A505" s="4"/>
       <c r="C505" s="4"/>
       <c r="D505" s="4"/>
@@ -4640,7 +4693,7 @@
       <c r="H505" s="4"/>
       <c r="I505" s="4"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A506" s="4"/>
       <c r="C506" s="4"/>
       <c r="D506" s="4"/>
@@ -4648,7 +4701,7 @@
       <c r="H506" s="4"/>
       <c r="I506" s="4"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A507" s="4"/>
       <c r="C507" s="4"/>
       <c r="D507" s="4"/>
@@ -4656,7 +4709,7 @@
       <c r="H507" s="4"/>
       <c r="I507" s="4"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A508" s="4"/>
       <c r="C508" s="4"/>
       <c r="D508" s="4"/>
@@ -4664,7 +4717,7 @@
       <c r="H508" s="4"/>
       <c r="I508" s="4"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A509" s="4"/>
       <c r="C509" s="4"/>
       <c r="D509" s="4"/>
@@ -4672,7 +4725,7 @@
       <c r="H509" s="4"/>
       <c r="I509" s="4"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A510" s="4"/>
       <c r="C510" s="4"/>
       <c r="D510" s="4"/>
@@ -4680,7 +4733,7 @@
       <c r="H510" s="4"/>
       <c r="I510" s="4"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A511" s="4"/>
       <c r="C511" s="4"/>
       <c r="D511" s="4"/>
@@ -4688,7 +4741,7 @@
       <c r="H511" s="4"/>
       <c r="I511" s="4"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A512" s="4"/>
       <c r="C512" s="4"/>
       <c r="D512" s="4"/>
@@ -4696,7 +4749,7 @@
       <c r="H512" s="4"/>
       <c r="I512" s="4"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A513" s="4"/>
       <c r="C513" s="4"/>
       <c r="D513" s="4"/>
@@ -4704,7 +4757,7 @@
       <c r="H513" s="4"/>
       <c r="I513" s="4"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A514" s="4"/>
       <c r="C514" s="4"/>
       <c r="D514" s="4"/>
@@ -4712,7 +4765,7 @@
       <c r="H514" s="4"/>
       <c r="I514" s="4"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A515" s="4"/>
       <c r="C515" s="4"/>
       <c r="D515" s="4"/>
@@ -4720,7 +4773,7 @@
       <c r="H515" s="4"/>
       <c r="I515" s="4"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A516" s="4"/>
       <c r="C516" s="4"/>
       <c r="D516" s="4"/>
@@ -4728,7 +4781,7 @@
       <c r="H516" s="4"/>
       <c r="I516" s="4"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A517" s="4"/>
       <c r="C517" s="4"/>
       <c r="D517" s="4"/>
@@ -4736,7 +4789,7 @@
       <c r="H517" s="4"/>
       <c r="I517" s="4"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A518" s="4"/>
       <c r="C518" s="4"/>
       <c r="D518" s="4"/>
@@ -4744,7 +4797,7 @@
       <c r="H518" s="4"/>
       <c r="I518" s="4"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A519" s="4"/>
       <c r="C519" s="4"/>
       <c r="D519" s="4"/>
@@ -4752,7 +4805,7 @@
       <c r="H519" s="4"/>
       <c r="I519" s="4"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A520" s="4"/>
       <c r="C520" s="4"/>
       <c r="D520" s="4"/>
@@ -4760,7 +4813,7 @@
       <c r="H520" s="4"/>
       <c r="I520" s="4"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A521" s="4"/>
       <c r="C521" s="4"/>
       <c r="D521" s="4"/>
@@ -4768,7 +4821,7 @@
       <c r="H521" s="4"/>
       <c r="I521" s="4"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A522" s="4"/>
       <c r="C522" s="4"/>
       <c r="D522" s="4"/>
@@ -4776,7 +4829,7 @@
       <c r="H522" s="4"/>
       <c r="I522" s="4"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A523" s="4"/>
       <c r="C523" s="4"/>
       <c r="D523" s="4"/>
@@ -4784,7 +4837,7 @@
       <c r="H523" s="4"/>
       <c r="I523" s="4"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A524" s="4"/>
       <c r="C524" s="4"/>
       <c r="D524" s="4"/>
@@ -4792,7 +4845,7 @@
       <c r="H524" s="4"/>
       <c r="I524" s="4"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A525" s="4"/>
       <c r="C525" s="4"/>
       <c r="D525" s="4"/>
@@ -4800,7 +4853,7 @@
       <c r="H525" s="4"/>
       <c r="I525" s="4"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A526" s="4"/>
       <c r="C526" s="4"/>
       <c r="D526" s="4"/>
@@ -4808,7 +4861,7 @@
       <c r="H526" s="4"/>
       <c r="I526" s="4"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A527" s="4"/>
       <c r="C527" s="4"/>
       <c r="D527" s="4"/>
@@ -4816,7 +4869,7 @@
       <c r="H527" s="4"/>
       <c r="I527" s="4"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A528" s="4"/>
       <c r="C528" s="4"/>
       <c r="D528" s="4"/>
@@ -4824,7 +4877,7 @@
       <c r="H528" s="4"/>
       <c r="I528" s="4"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A529" s="4"/>
       <c r="C529" s="4"/>
       <c r="D529" s="4"/>
@@ -4832,7 +4885,7 @@
       <c r="H529" s="4"/>
       <c r="I529" s="4"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A530" s="4"/>
       <c r="C530" s="4"/>
       <c r="D530" s="4"/>
@@ -4840,7 +4893,7 @@
       <c r="H530" s="4"/>
       <c r="I530" s="4"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A531" s="4"/>
       <c r="C531" s="4"/>
       <c r="D531" s="4"/>
@@ -4848,7 +4901,7 @@
       <c r="H531" s="4"/>
       <c r="I531" s="4"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A532" s="4"/>
       <c r="C532" s="4"/>
       <c r="D532" s="4"/>
@@ -4856,7 +4909,7 @@
       <c r="H532" s="4"/>
       <c r="I532" s="4"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A533" s="4"/>
       <c r="C533" s="4"/>
       <c r="D533" s="4"/>
@@ -4864,7 +4917,7 @@
       <c r="H533" s="4"/>
       <c r="I533" s="4"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A534" s="4"/>
       <c r="C534" s="4"/>
       <c r="D534" s="4"/>
@@ -4872,7 +4925,7 @@
       <c r="H534" s="4"/>
       <c r="I534" s="4"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A535" s="4"/>
       <c r="C535" s="4"/>
       <c r="D535" s="4"/>
@@ -4880,7 +4933,7 @@
       <c r="H535" s="4"/>
       <c r="I535" s="4"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A536" s="4"/>
       <c r="C536" s="4"/>
       <c r="D536" s="4"/>
@@ -4888,7 +4941,7 @@
       <c r="H536" s="4"/>
       <c r="I536" s="4"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A537" s="4"/>
       <c r="C537" s="4"/>
       <c r="D537" s="4"/>
@@ -4896,7 +4949,7 @@
       <c r="H537" s="4"/>
       <c r="I537" s="4"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A538" s="4"/>
       <c r="C538" s="4"/>
       <c r="D538" s="4"/>
@@ -4904,7 +4957,7 @@
       <c r="H538" s="4"/>
       <c r="I538" s="4"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A539" s="4"/>
       <c r="C539" s="4"/>
       <c r="D539" s="4"/>
@@ -4912,7 +4965,7 @@
       <c r="H539" s="4"/>
       <c r="I539" s="4"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A540" s="4"/>
       <c r="C540" s="4"/>
       <c r="D540" s="4"/>
@@ -4920,7 +4973,7 @@
       <c r="H540" s="4"/>
       <c r="I540" s="4"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A541" s="4"/>
       <c r="C541" s="4"/>
       <c r="D541" s="4"/>
@@ -4928,7 +4981,7 @@
       <c r="H541" s="4"/>
       <c r="I541" s="4"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A542" s="4"/>
       <c r="C542" s="4"/>
       <c r="D542" s="4"/>
@@ -4936,7 +4989,7 @@
       <c r="H542" s="4"/>
       <c r="I542" s="4"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A543" s="4"/>
       <c r="C543" s="4"/>
       <c r="D543" s="4"/>
@@ -4944,7 +4997,7 @@
       <c r="H543" s="4"/>
       <c r="I543" s="4"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A544" s="4"/>
       <c r="C544" s="4"/>
       <c r="D544" s="4"/>
@@ -4952,7 +5005,7 @@
       <c r="H544" s="4"/>
       <c r="I544" s="4"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A545" s="4"/>
       <c r="C545" s="4"/>
       <c r="D545" s="4"/>
@@ -4960,7 +5013,7 @@
       <c r="H545" s="4"/>
       <c r="I545" s="4"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A546" s="4"/>
       <c r="C546" s="4"/>
       <c r="D546" s="4"/>
@@ -4968,7 +5021,7 @@
       <c r="H546" s="4"/>
       <c r="I546" s="4"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A547" s="4"/>
       <c r="C547" s="4"/>
       <c r="D547" s="4"/>
@@ -4976,7 +5029,7 @@
       <c r="H547" s="4"/>
       <c r="I547" s="4"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A548" s="4"/>
       <c r="C548" s="4"/>
       <c r="D548" s="4"/>
@@ -4984,7 +5037,7 @@
       <c r="H548" s="4"/>
       <c r="I548" s="4"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A549" s="4"/>
       <c r="C549" s="4"/>
       <c r="D549" s="4"/>
@@ -4992,7 +5045,7 @@
       <c r="H549" s="4"/>
       <c r="I549" s="4"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A550" s="4"/>
       <c r="C550" s="4"/>
       <c r="D550" s="4"/>
@@ -5000,7 +5053,7 @@
       <c r="H550" s="4"/>
       <c r="I550" s="4"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A551" s="4"/>
       <c r="C551" s="4"/>
       <c r="D551" s="4"/>
@@ -5008,7 +5061,7 @@
       <c r="H551" s="4"/>
       <c r="I551" s="4"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A552" s="4"/>
       <c r="C552" s="4"/>
       <c r="D552" s="4"/>
@@ -5016,7 +5069,7 @@
       <c r="H552" s="4"/>
       <c r="I552" s="4"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A553" s="4"/>
       <c r="C553" s="4"/>
       <c r="D553" s="4"/>
@@ -5024,7 +5077,7 @@
       <c r="H553" s="4"/>
       <c r="I553" s="4"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A554" s="4"/>
       <c r="C554" s="4"/>
       <c r="D554" s="4"/>
@@ -5032,7 +5085,7 @@
       <c r="H554" s="4"/>
       <c r="I554" s="4"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A555" s="4"/>
       <c r="C555" s="4"/>
       <c r="D555" s="4"/>
@@ -5040,7 +5093,7 @@
       <c r="H555" s="4"/>
       <c r="I555" s="4"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A556" s="4"/>
       <c r="C556" s="4"/>
       <c r="D556" s="4"/>
@@ -5048,7 +5101,7 @@
       <c r="H556" s="4"/>
       <c r="I556" s="4"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A557" s="4"/>
       <c r="C557" s="4"/>
       <c r="D557" s="4"/>
@@ -5056,7 +5109,7 @@
       <c r="H557" s="4"/>
       <c r="I557" s="4"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A558" s="4"/>
       <c r="C558" s="4"/>
       <c r="D558" s="4"/>
@@ -5064,7 +5117,7 @@
       <c r="H558" s="4"/>
       <c r="I558" s="4"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A559" s="4"/>
       <c r="C559" s="4"/>
       <c r="D559" s="4"/>
@@ -5072,7 +5125,7 @@
       <c r="H559" s="4"/>
       <c r="I559" s="4"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A560" s="4"/>
       <c r="C560" s="4"/>
       <c r="D560" s="4"/>
@@ -5080,7 +5133,7 @@
       <c r="H560" s="4"/>
       <c r="I560" s="4"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A561" s="4"/>
       <c r="C561" s="4"/>
       <c r="D561" s="4"/>
@@ -5088,7 +5141,7 @@
       <c r="H561" s="4"/>
       <c r="I561" s="4"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A562" s="4"/>
       <c r="C562" s="4"/>
       <c r="D562" s="4"/>
@@ -5096,7 +5149,7 @@
       <c r="H562" s="4"/>
       <c r="I562" s="4"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A563" s="4"/>
       <c r="C563" s="4"/>
       <c r="D563" s="4"/>
@@ -5104,7 +5157,7 @@
       <c r="H563" s="4"/>
       <c r="I563" s="4"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A564" s="4"/>
       <c r="C564" s="4"/>
       <c r="D564" s="4"/>
@@ -5112,7 +5165,7 @@
       <c r="H564" s="4"/>
       <c r="I564" s="4"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A565" s="4"/>
       <c r="C565" s="4"/>
       <c r="D565" s="4"/>
@@ -5120,7 +5173,7 @@
       <c r="H565" s="4"/>
       <c r="I565" s="4"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A566" s="4"/>
       <c r="C566" s="4"/>
       <c r="D566" s="4"/>
@@ -5128,7 +5181,7 @@
       <c r="H566" s="4"/>
       <c r="I566" s="4"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A567" s="4"/>
       <c r="C567" s="4"/>
       <c r="D567" s="4"/>
@@ -5136,7 +5189,7 @@
       <c r="H567" s="4"/>
       <c r="I567" s="4"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A568" s="4"/>
       <c r="C568" s="4"/>
       <c r="D568" s="4"/>
@@ -5144,7 +5197,7 @@
       <c r="H568" s="4"/>
       <c r="I568" s="4"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A569" s="4"/>
       <c r="C569" s="4"/>
       <c r="D569" s="4"/>
@@ -5152,7 +5205,7 @@
       <c r="H569" s="4"/>
       <c r="I569" s="4"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A570" s="4"/>
       <c r="C570" s="4"/>
       <c r="D570" s="4"/>
@@ -5160,7 +5213,7 @@
       <c r="H570" s="4"/>
       <c r="I570" s="4"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A571" s="4"/>
       <c r="C571" s="4"/>
       <c r="D571" s="4"/>
@@ -5168,7 +5221,7 @@
       <c r="H571" s="4"/>
       <c r="I571" s="4"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A572" s="4"/>
       <c r="C572" s="4"/>
       <c r="D572" s="4"/>
@@ -5176,7 +5229,7 @@
       <c r="H572" s="4"/>
       <c r="I572" s="4"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A573" s="4"/>
       <c r="C573" s="4"/>
       <c r="D573" s="4"/>
@@ -5184,7 +5237,7 @@
       <c r="H573" s="4"/>
       <c r="I573" s="4"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A574" s="4"/>
       <c r="C574" s="4"/>
       <c r="D574" s="4"/>
@@ -5192,7 +5245,7 @@
       <c r="H574" s="4"/>
       <c r="I574" s="4"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A575" s="4"/>
       <c r="C575" s="4"/>
       <c r="D575" s="4"/>
@@ -5200,7 +5253,7 @@
       <c r="H575" s="4"/>
       <c r="I575" s="4"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A576" s="4"/>
       <c r="C576" s="4"/>
       <c r="D576" s="4"/>
@@ -5208,7 +5261,7 @@
       <c r="H576" s="4"/>
       <c r="I576" s="4"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A577" s="4"/>
       <c r="C577" s="4"/>
       <c r="D577" s="4"/>
@@ -5216,7 +5269,7 @@
       <c r="H577" s="4"/>
       <c r="I577" s="4"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A578" s="4"/>
       <c r="C578" s="4"/>
       <c r="D578" s="4"/>
@@ -5224,7 +5277,7 @@
       <c r="H578" s="4"/>
       <c r="I578" s="4"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A579" s="4"/>
       <c r="C579" s="4"/>
       <c r="D579" s="4"/>
@@ -5232,7 +5285,7 @@
       <c r="H579" s="4"/>
       <c r="I579" s="4"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A580" s="4"/>
       <c r="C580" s="4"/>
       <c r="D580" s="4"/>
@@ -5240,7 +5293,7 @@
       <c r="H580" s="4"/>
       <c r="I580" s="4"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A581" s="4"/>
       <c r="C581" s="4"/>
       <c r="D581" s="4"/>
@@ -5248,7 +5301,7 @@
       <c r="H581" s="4"/>
       <c r="I581" s="4"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A582" s="4"/>
       <c r="C582" s="4"/>
       <c r="D582" s="4"/>
@@ -5256,7 +5309,7 @@
       <c r="H582" s="4"/>
       <c r="I582" s="4"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A583" s="4"/>
       <c r="C583" s="4"/>
       <c r="D583" s="4"/>
@@ -5264,7 +5317,7 @@
       <c r="H583" s="4"/>
       <c r="I583" s="4"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A584" s="4"/>
       <c r="C584" s="4"/>
       <c r="D584" s="4"/>
@@ -5272,7 +5325,7 @@
       <c r="H584" s="4"/>
       <c r="I584" s="4"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A585" s="4"/>
       <c r="C585" s="4"/>
       <c r="D585" s="4"/>
@@ -5280,7 +5333,7 @@
       <c r="H585" s="4"/>
       <c r="I585" s="4"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A586" s="4"/>
       <c r="C586" s="4"/>
       <c r="D586" s="4"/>
@@ -5288,7 +5341,7 @@
       <c r="H586" s="4"/>
       <c r="I586" s="4"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A587" s="4"/>
       <c r="C587" s="4"/>
       <c r="D587" s="4"/>
@@ -5296,7 +5349,7 @@
       <c r="H587" s="4"/>
       <c r="I587" s="4"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A588" s="4"/>
       <c r="C588" s="4"/>
       <c r="D588" s="4"/>
@@ -5304,7 +5357,7 @@
       <c r="H588" s="4"/>
       <c r="I588" s="4"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A589" s="4"/>
       <c r="C589" s="4"/>
       <c r="D589" s="4"/>
@@ -5312,7 +5365,7 @@
       <c r="H589" s="4"/>
       <c r="I589" s="4"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A590" s="4"/>
       <c r="C590" s="4"/>
       <c r="D590" s="4"/>
@@ -5320,7 +5373,7 @@
       <c r="H590" s="4"/>
       <c r="I590" s="4"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A591" s="4"/>
       <c r="C591" s="4"/>
       <c r="D591" s="4"/>
@@ -5328,7 +5381,7 @@
       <c r="H591" s="4"/>
       <c r="I591" s="4"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A592" s="4"/>
       <c r="C592" s="4"/>
       <c r="D592" s="4"/>
@@ -5336,7 +5389,7 @@
       <c r="H592" s="4"/>
       <c r="I592" s="4"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A593" s="4"/>
       <c r="C593" s="4"/>
       <c r="D593" s="4"/>
@@ -5344,7 +5397,7 @@
       <c r="H593" s="4"/>
       <c r="I593" s="4"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A594" s="4"/>
       <c r="C594" s="4"/>
       <c r="D594" s="4"/>
@@ -5352,7 +5405,7 @@
       <c r="H594" s="4"/>
       <c r="I594" s="4"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A595" s="4"/>
       <c r="C595" s="4"/>
       <c r="D595" s="4"/>
@@ -5360,7 +5413,7 @@
       <c r="H595" s="4"/>
       <c r="I595" s="4"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A596" s="4"/>
       <c r="C596" s="4"/>
       <c r="D596" s="4"/>
@@ -5368,7 +5421,7 @@
       <c r="H596" s="4"/>
       <c r="I596" s="4"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A597" s="4"/>
       <c r="C597" s="4"/>
       <c r="D597" s="4"/>
@@ -5376,7 +5429,7 @@
       <c r="H597" s="4"/>
       <c r="I597" s="4"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A598" s="4"/>
       <c r="C598" s="4"/>
       <c r="D598" s="4"/>
@@ -5384,7 +5437,7 @@
       <c r="H598" s="4"/>
       <c r="I598" s="4"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A599" s="4"/>
       <c r="C599" s="4"/>
       <c r="D599" s="4"/>
@@ -5392,7 +5445,7 @@
       <c r="H599" s="4"/>
       <c r="I599" s="4"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A600" s="4"/>
       <c r="C600" s="4"/>
       <c r="D600" s="4"/>
@@ -5400,7 +5453,7 @@
       <c r="H600" s="4"/>
       <c r="I600" s="4"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A601" s="4"/>
       <c r="C601" s="4"/>
       <c r="D601" s="4"/>
@@ -5408,7 +5461,7 @@
       <c r="H601" s="4"/>
       <c r="I601" s="4"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A602" s="4"/>
       <c r="C602" s="4"/>
       <c r="D602" s="4"/>
@@ -5416,7 +5469,7 @@
       <c r="H602" s="4"/>
       <c r="I602" s="4"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A603" s="4"/>
       <c r="C603" s="4"/>
       <c r="D603" s="4"/>
@@ -5424,7 +5477,7 @@
       <c r="H603" s="4"/>
       <c r="I603" s="4"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A604" s="4"/>
       <c r="C604" s="4"/>
       <c r="D604" s="4"/>
@@ -5432,7 +5485,7 @@
       <c r="H604" s="4"/>
       <c r="I604" s="4"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A605" s="4"/>
       <c r="C605" s="4"/>
       <c r="D605" s="4"/>
@@ -5440,7 +5493,7 @@
       <c r="H605" s="4"/>
       <c r="I605" s="4"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A606" s="4"/>
       <c r="C606" s="4"/>
       <c r="D606" s="4"/>
@@ -5448,7 +5501,7 @@
       <c r="H606" s="4"/>
       <c r="I606" s="4"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A607" s="4"/>
       <c r="C607" s="4"/>
       <c r="D607" s="4"/>
@@ -5456,7 +5509,7 @@
       <c r="H607" s="4"/>
       <c r="I607" s="4"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A608" s="4"/>
       <c r="C608" s="4"/>
       <c r="D608" s="4"/>
@@ -5464,7 +5517,7 @@
       <c r="H608" s="4"/>
       <c r="I608" s="4"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A609" s="4"/>
       <c r="C609" s="4"/>
       <c r="D609" s="4"/>
@@ -5472,7 +5525,7 @@
       <c r="H609" s="4"/>
       <c r="I609" s="4"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A610" s="4"/>
       <c r="C610" s="4"/>
       <c r="D610" s="4"/>
@@ -5480,7 +5533,7 @@
       <c r="H610" s="4"/>
       <c r="I610" s="4"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A611" s="4"/>
       <c r="C611" s="4"/>
       <c r="D611" s="4"/>
@@ -5488,7 +5541,7 @@
       <c r="H611" s="4"/>
       <c r="I611" s="4"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A612" s="4"/>
       <c r="C612" s="4"/>
       <c r="D612" s="4"/>
@@ -5496,7 +5549,7 @@
       <c r="H612" s="4"/>
       <c r="I612" s="4"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A613" s="4"/>
       <c r="C613" s="4"/>
       <c r="D613" s="4"/>
@@ -5504,7 +5557,7 @@
       <c r="H613" s="4"/>
       <c r="I613" s="4"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A614" s="4"/>
       <c r="C614" s="4"/>
       <c r="D614" s="4"/>
@@ -5512,7 +5565,7 @@
       <c r="H614" s="4"/>
       <c r="I614" s="4"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A615" s="4"/>
       <c r="C615" s="4"/>
       <c r="D615" s="4"/>
@@ -5520,7 +5573,7 @@
       <c r="H615" s="4"/>
       <c r="I615" s="4"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A616" s="4"/>
       <c r="C616" s="4"/>
       <c r="D616" s="4"/>
@@ -5528,7 +5581,7 @@
       <c r="H616" s="4"/>
       <c r="I616" s="4"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A617" s="4"/>
       <c r="C617" s="4"/>
       <c r="D617" s="4"/>
@@ -5536,7 +5589,7 @@
       <c r="H617" s="4"/>
       <c r="I617" s="4"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A618" s="4"/>
       <c r="C618" s="4"/>
       <c r="D618" s="4"/>
@@ -5544,7 +5597,7 @@
       <c r="H618" s="4"/>
       <c r="I618" s="4"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A619" s="4"/>
       <c r="C619" s="4"/>
       <c r="D619" s="4"/>
@@ -5552,7 +5605,7 @@
       <c r="H619" s="4"/>
       <c r="I619" s="4"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A620" s="4"/>
       <c r="C620" s="4"/>
       <c r="D620" s="4"/>
@@ -5560,7 +5613,7 @@
       <c r="H620" s="4"/>
       <c r="I620" s="4"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A621" s="4"/>
       <c r="C621" s="4"/>
       <c r="D621" s="4"/>
@@ -5568,7 +5621,7 @@
       <c r="H621" s="4"/>
       <c r="I621" s="4"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A622" s="4"/>
       <c r="C622" s="4"/>
       <c r="D622" s="4"/>
@@ -5576,7 +5629,7 @@
       <c r="H622" s="4"/>
       <c r="I622" s="4"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A623" s="4"/>
       <c r="C623" s="4"/>
       <c r="D623" s="4"/>
@@ -5584,7 +5637,7 @@
       <c r="H623" s="4"/>
       <c r="I623" s="4"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A624" s="4"/>
       <c r="C624" s="4"/>
       <c r="D624" s="4"/>
@@ -5592,7 +5645,7 @@
       <c r="H624" s="4"/>
       <c r="I624" s="4"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A625" s="4"/>
       <c r="C625" s="4"/>
       <c r="D625" s="4"/>
@@ -5600,7 +5653,7 @@
       <c r="H625" s="4"/>
       <c r="I625" s="4"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A626" s="4"/>
       <c r="C626" s="4"/>
       <c r="D626" s="4"/>
@@ -5608,7 +5661,7 @@
       <c r="H626" s="4"/>
       <c r="I626" s="4"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A627" s="4"/>
       <c r="C627" s="4"/>
       <c r="D627" s="4"/>
@@ -5616,7 +5669,7 @@
       <c r="H627" s="4"/>
       <c r="I627" s="4"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A628" s="4"/>
       <c r="C628" s="4"/>
       <c r="D628" s="4"/>
@@ -5624,7 +5677,7 @@
       <c r="H628" s="4"/>
       <c r="I628" s="4"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A629" s="4"/>
       <c r="C629" s="4"/>
       <c r="D629" s="4"/>
@@ -5632,7 +5685,7 @@
       <c r="H629" s="4"/>
       <c r="I629" s="4"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A630" s="4"/>
       <c r="C630" s="4"/>
       <c r="D630" s="4"/>
@@ -5640,7 +5693,7 @@
       <c r="H630" s="4"/>
       <c r="I630" s="4"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A631" s="4"/>
       <c r="C631" s="4"/>
       <c r="D631" s="4"/>
@@ -5648,7 +5701,7 @@
       <c r="H631" s="4"/>
       <c r="I631" s="4"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A632" s="4"/>
       <c r="C632" s="4"/>
       <c r="D632" s="4"/>
@@ -5656,7 +5709,7 @@
       <c r="H632" s="4"/>
       <c r="I632" s="4"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A633" s="4"/>
       <c r="C633" s="4"/>
       <c r="D633" s="4"/>
@@ -5664,7 +5717,7 @@
       <c r="H633" s="4"/>
       <c r="I633" s="4"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A634" s="4"/>
       <c r="C634" s="4"/>
       <c r="D634" s="4"/>
@@ -5672,7 +5725,7 @@
       <c r="H634" s="4"/>
       <c r="I634" s="4"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A635" s="4"/>
       <c r="C635" s="4"/>
       <c r="D635" s="4"/>
@@ -5680,7 +5733,7 @@
       <c r="H635" s="4"/>
       <c r="I635" s="4"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A636" s="4"/>
       <c r="C636" s="4"/>
       <c r="D636" s="4"/>
@@ -5688,7 +5741,7 @@
       <c r="H636" s="4"/>
       <c r="I636" s="4"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A637" s="4"/>
       <c r="C637" s="4"/>
       <c r="D637" s="4"/>
@@ -5696,7 +5749,7 @@
       <c r="H637" s="4"/>
       <c r="I637" s="4"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A638" s="4"/>
       <c r="C638" s="4"/>
       <c r="D638" s="4"/>
@@ -5704,7 +5757,7 @@
       <c r="H638" s="4"/>
       <c r="I638" s="4"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A639" s="4"/>
       <c r="C639" s="4"/>
       <c r="D639" s="4"/>
@@ -5712,7 +5765,7 @@
       <c r="H639" s="4"/>
       <c r="I639" s="4"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A640" s="4"/>
       <c r="C640" s="4"/>
       <c r="D640" s="4"/>
@@ -5720,7 +5773,7 @@
       <c r="H640" s="4"/>
       <c r="I640" s="4"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A641" s="4"/>
       <c r="C641" s="4"/>
       <c r="D641" s="4"/>
@@ -5728,7 +5781,7 @@
       <c r="H641" s="4"/>
       <c r="I641" s="4"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A642" s="4"/>
       <c r="C642" s="4"/>
       <c r="D642" s="4"/>
@@ -5736,7 +5789,7 @@
       <c r="H642" s="4"/>
       <c r="I642" s="4"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A643" s="4"/>
       <c r="C643" s="4"/>
       <c r="D643" s="4"/>
@@ -5744,7 +5797,7 @@
       <c r="H643" s="4"/>
       <c r="I643" s="4"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A644" s="4"/>
       <c r="C644" s="4"/>
       <c r="D644" s="4"/>
@@ -5752,7 +5805,7 @@
       <c r="H644" s="4"/>
       <c r="I644" s="4"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A645" s="4"/>
       <c r="C645" s="4"/>
       <c r="D645" s="4"/>
@@ -5760,7 +5813,7 @@
       <c r="H645" s="4"/>
       <c r="I645" s="4"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A646" s="4"/>
       <c r="C646" s="4"/>
       <c r="D646" s="4"/>
@@ -5768,7 +5821,7 @@
       <c r="H646" s="4"/>
       <c r="I646" s="4"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A647" s="4"/>
       <c r="C647" s="4"/>
       <c r="D647" s="4"/>
@@ -5776,7 +5829,7 @@
       <c r="H647" s="4"/>
       <c r="I647" s="4"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A648" s="4"/>
       <c r="C648" s="4"/>
       <c r="D648" s="4"/>
@@ -5784,7 +5837,7 @@
       <c r="H648" s="4"/>
       <c r="I648" s="4"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A649" s="4"/>
       <c r="C649" s="4"/>
       <c r="D649" s="4"/>
@@ -5792,7 +5845,7 @@
       <c r="H649" s="4"/>
       <c r="I649" s="4"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A650" s="4"/>
       <c r="C650" s="4"/>
       <c r="D650" s="4"/>
@@ -5800,7 +5853,7 @@
       <c r="H650" s="4"/>
       <c r="I650" s="4"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A651" s="4"/>
       <c r="C651" s="4"/>
       <c r="D651" s="4"/>
@@ -5808,7 +5861,7 @@
       <c r="H651" s="4"/>
       <c r="I651" s="4"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A652" s="4"/>
       <c r="C652" s="4"/>
       <c r="D652" s="4"/>
@@ -5816,7 +5869,7 @@
       <c r="H652" s="4"/>
       <c r="I652" s="4"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A653" s="4"/>
       <c r="C653" s="4"/>
       <c r="D653" s="4"/>
@@ -5824,7 +5877,7 @@
       <c r="H653" s="4"/>
       <c r="I653" s="4"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A654" s="4"/>
       <c r="C654" s="4"/>
       <c r="D654" s="4"/>
@@ -5832,7 +5885,7 @@
       <c r="H654" s="4"/>
       <c r="I654" s="4"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A655" s="4"/>
       <c r="C655" s="4"/>
       <c r="D655" s="4"/>
@@ -5840,7 +5893,7 @@
       <c r="H655" s="4"/>
       <c r="I655" s="4"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A656" s="4"/>
       <c r="C656" s="4"/>
       <c r="D656" s="4"/>
@@ -5848,7 +5901,7 @@
       <c r="H656" s="4"/>
       <c r="I656" s="4"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A657" s="4"/>
       <c r="C657" s="4"/>
       <c r="D657" s="4"/>
@@ -5856,7 +5909,7 @@
       <c r="H657" s="4"/>
       <c r="I657" s="4"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A658" s="4"/>
       <c r="C658" s="4"/>
       <c r="D658" s="4"/>
@@ -5864,7 +5917,7 @@
       <c r="H658" s="4"/>
       <c r="I658" s="4"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A659" s="4"/>
       <c r="C659" s="4"/>
       <c r="D659" s="4"/>
@@ -5872,7 +5925,7 @@
       <c r="H659" s="4"/>
       <c r="I659" s="4"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A660" s="4"/>
       <c r="C660" s="4"/>
       <c r="D660" s="4"/>
@@ -5880,7 +5933,7 @@
       <c r="H660" s="4"/>
       <c r="I660" s="4"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A661" s="4"/>
       <c r="C661" s="4"/>
       <c r="D661" s="4"/>
@@ -5888,7 +5941,7 @@
       <c r="H661" s="4"/>
       <c r="I661" s="4"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A662" s="4"/>
       <c r="C662" s="4"/>
       <c r="D662" s="4"/>
@@ -5896,7 +5949,7 @@
       <c r="H662" s="4"/>
       <c r="I662" s="4"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A663" s="4"/>
       <c r="C663" s="4"/>
       <c r="D663" s="4"/>
@@ -5904,7 +5957,7 @@
       <c r="H663" s="4"/>
       <c r="I663" s="4"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A664" s="4"/>
       <c r="C664" s="4"/>
       <c r="D664" s="4"/>
@@ -5912,7 +5965,7 @@
       <c r="H664" s="4"/>
       <c r="I664" s="4"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A665" s="4"/>
       <c r="C665" s="4"/>
       <c r="D665" s="4"/>
@@ -5920,7 +5973,7 @@
       <c r="H665" s="4"/>
       <c r="I665" s="4"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A666" s="4"/>
       <c r="C666" s="4"/>
       <c r="D666" s="4"/>
@@ -5928,7 +5981,7 @@
       <c r="H666" s="4"/>
       <c r="I666" s="4"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A667" s="4"/>
       <c r="C667" s="4"/>
       <c r="D667" s="4"/>
@@ -5936,7 +5989,7 @@
       <c r="H667" s="4"/>
       <c r="I667" s="4"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A668" s="4"/>
       <c r="C668" s="4"/>
       <c r="D668" s="4"/>
@@ -5944,7 +5997,7 @@
       <c r="H668" s="4"/>
       <c r="I668" s="4"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A669" s="4"/>
       <c r="C669" s="4"/>
       <c r="D669" s="4"/>
@@ -5952,7 +6005,7 @@
       <c r="H669" s="4"/>
       <c r="I669" s="4"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A670" s="4"/>
       <c r="C670" s="4"/>
       <c r="D670" s="4"/>
@@ -5960,7 +6013,7 @@
       <c r="H670" s="4"/>
       <c r="I670" s="4"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A671" s="4"/>
       <c r="C671" s="4"/>
       <c r="D671" s="4"/>
@@ -5968,7 +6021,7 @@
       <c r="H671" s="4"/>
       <c r="I671" s="4"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A672" s="4"/>
       <c r="C672" s="4"/>
       <c r="D672" s="4"/>
@@ -5976,7 +6029,7 @@
       <c r="H672" s="4"/>
       <c r="I672" s="4"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A673" s="4"/>
       <c r="C673" s="4"/>
       <c r="D673" s="4"/>
@@ -5984,7 +6037,7 @@
       <c r="H673" s="4"/>
       <c r="I673" s="4"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A674" s="4"/>
       <c r="C674" s="4"/>
       <c r="D674" s="4"/>
@@ -5992,7 +6045,7 @@
       <c r="H674" s="4"/>
       <c r="I674" s="4"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A675" s="4"/>
       <c r="C675" s="4"/>
       <c r="D675" s="4"/>
@@ -6000,7 +6053,7 @@
       <c r="H675" s="4"/>
       <c r="I675" s="4"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A676" s="4"/>
       <c r="C676" s="4"/>
       <c r="D676" s="4"/>
@@ -6008,7 +6061,7 @@
       <c r="H676" s="4"/>
       <c r="I676" s="4"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A677" s="4"/>
       <c r="C677" s="4"/>
       <c r="D677" s="4"/>
@@ -6016,7 +6069,7 @@
       <c r="H677" s="4"/>
       <c r="I677" s="4"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A678" s="4"/>
       <c r="C678" s="4"/>
       <c r="D678" s="4"/>
@@ -6024,7 +6077,7 @@
       <c r="H678" s="4"/>
       <c r="I678" s="4"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A679" s="4"/>
       <c r="C679" s="4"/>
       <c r="D679" s="4"/>
@@ -6032,7 +6085,7 @@
       <c r="H679" s="4"/>
       <c r="I679" s="4"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A680" s="4"/>
       <c r="C680" s="4"/>
       <c r="D680" s="4"/>
@@ -6040,7 +6093,7 @@
       <c r="H680" s="4"/>
       <c r="I680" s="4"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A681" s="4"/>
       <c r="C681" s="4"/>
       <c r="D681" s="4"/>
@@ -6048,7 +6101,7 @@
       <c r="H681" s="4"/>
       <c r="I681" s="4"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A682" s="4"/>
       <c r="C682" s="4"/>
       <c r="D682" s="4"/>
@@ -6056,7 +6109,7 @@
       <c r="H682" s="4"/>
       <c r="I682" s="4"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A683" s="4"/>
       <c r="C683" s="4"/>
       <c r="D683" s="4"/>
@@ -6064,7 +6117,7 @@
       <c r="H683" s="4"/>
       <c r="I683" s="4"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A684" s="4"/>
       <c r="C684" s="4"/>
       <c r="D684" s="4"/>
@@ -6072,7 +6125,7 @@
       <c r="H684" s="4"/>
       <c r="I684" s="4"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A685" s="4"/>
       <c r="C685" s="4"/>
       <c r="D685" s="4"/>
@@ -6080,7 +6133,7 @@
       <c r="H685" s="4"/>
       <c r="I685" s="4"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A686" s="4"/>
       <c r="C686" s="4"/>
       <c r="D686" s="4"/>
@@ -6088,7 +6141,7 @@
       <c r="H686" s="4"/>
       <c r="I686" s="4"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A687" s="4"/>
       <c r="C687" s="4"/>
       <c r="D687" s="4"/>
@@ -6096,7 +6149,7 @@
       <c r="H687" s="4"/>
       <c r="I687" s="4"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A688" s="4"/>
       <c r="C688" s="4"/>
       <c r="D688" s="4"/>
@@ -6104,7 +6157,7 @@
       <c r="H688" s="4"/>
       <c r="I688" s="4"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A689" s="4"/>
       <c r="C689" s="4"/>
       <c r="D689" s="4"/>
@@ -6112,7 +6165,7 @@
       <c r="H689" s="4"/>
       <c r="I689" s="4"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A690" s="4"/>
       <c r="C690" s="4"/>
       <c r="D690" s="4"/>
@@ -6120,7 +6173,7 @@
       <c r="H690" s="4"/>
       <c r="I690" s="4"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A691" s="4"/>
       <c r="C691" s="4"/>
       <c r="D691" s="4"/>
@@ -6128,7 +6181,7 @@
       <c r="H691" s="4"/>
       <c r="I691" s="4"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A692" s="4"/>
       <c r="C692" s="4"/>
       <c r="D692" s="4"/>
@@ -6136,7 +6189,7 @@
       <c r="H692" s="4"/>
       <c r="I692" s="4"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A693" s="4"/>
       <c r="C693" s="4"/>
       <c r="D693" s="4"/>
@@ -6144,7 +6197,7 @@
       <c r="H693" s="4"/>
       <c r="I693" s="4"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A694" s="4"/>
       <c r="C694" s="4"/>
       <c r="D694" s="4"/>
@@ -6152,7 +6205,7 @@
       <c r="H694" s="4"/>
       <c r="I694" s="4"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A695" s="4"/>
       <c r="C695" s="4"/>
       <c r="D695" s="4"/>
@@ -6160,7 +6213,7 @@
       <c r="H695" s="4"/>
       <c r="I695" s="4"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A696" s="4"/>
       <c r="C696" s="4"/>
       <c r="D696" s="4"/>
@@ -6168,7 +6221,7 @@
       <c r="H696" s="4"/>
       <c r="I696" s="4"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A697" s="4"/>
       <c r="C697" s="4"/>
       <c r="D697" s="4"/>
@@ -6176,7 +6229,7 @@
       <c r="H697" s="4"/>
       <c r="I697" s="4"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A698" s="4"/>
       <c r="C698" s="4"/>
       <c r="D698" s="4"/>
@@ -6184,7 +6237,7 @@
       <c r="H698" s="4"/>
       <c r="I698" s="4"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A699" s="4"/>
       <c r="C699" s="4"/>
       <c r="D699" s="4"/>
@@ -6192,7 +6245,7 @@
       <c r="H699" s="4"/>
       <c r="I699" s="4"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A700" s="4"/>
       <c r="C700" s="4"/>
       <c r="D700" s="4"/>
@@ -6200,7 +6253,7 @@
       <c r="H700" s="4"/>
       <c r="I700" s="4"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A701" s="4"/>
       <c r="C701" s="4"/>
       <c r="D701" s="4"/>
@@ -6208,7 +6261,7 @@
       <c r="H701" s="4"/>
       <c r="I701" s="4"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A702" s="4"/>
       <c r="C702" s="4"/>
       <c r="D702" s="4"/>
@@ -6216,7 +6269,7 @@
       <c r="H702" s="4"/>
       <c r="I702" s="4"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A703" s="4"/>
       <c r="C703" s="4"/>
       <c r="D703" s="4"/>
@@ -6224,7 +6277,7 @@
       <c r="H703" s="4"/>
       <c r="I703" s="4"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A704" s="4"/>
       <c r="C704" s="4"/>
       <c r="D704" s="4"/>
@@ -6232,7 +6285,7 @@
       <c r="H704" s="4"/>
       <c r="I704" s="4"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A705" s="4"/>
       <c r="C705" s="4"/>
       <c r="D705" s="4"/>
@@ -6240,7 +6293,7 @@
       <c r="H705" s="4"/>
       <c r="I705" s="4"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A706" s="4"/>
       <c r="C706" s="4"/>
       <c r="D706" s="4"/>
@@ -6248,7 +6301,7 @@
       <c r="H706" s="4"/>
       <c r="I706" s="4"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A707" s="4"/>
       <c r="C707" s="4"/>
       <c r="D707" s="4"/>
@@ -6256,7 +6309,7 @@
       <c r="H707" s="4"/>
       <c r="I707" s="4"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A708" s="4"/>
       <c r="C708" s="4"/>
       <c r="D708" s="4"/>
@@ -6264,7 +6317,7 @@
       <c r="H708" s="4"/>
       <c r="I708" s="4"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A709" s="4"/>
       <c r="C709" s="4"/>
       <c r="D709" s="4"/>
@@ -6272,7 +6325,7 @@
       <c r="H709" s="4"/>
       <c r="I709" s="4"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A710" s="4"/>
       <c r="C710" s="4"/>
       <c r="D710" s="4"/>
@@ -6280,7 +6333,7 @@
       <c r="H710" s="4"/>
       <c r="I710" s="4"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A711" s="4"/>
       <c r="C711" s="4"/>
       <c r="D711" s="4"/>
@@ -6288,7 +6341,7 @@
       <c r="H711" s="4"/>
       <c r="I711" s="4"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A712" s="4"/>
       <c r="C712" s="4"/>
       <c r="D712" s="4"/>
@@ -6296,7 +6349,7 @@
       <c r="H712" s="4"/>
       <c r="I712" s="4"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A713" s="4"/>
       <c r="C713" s="4"/>
       <c r="D713" s="4"/>
@@ -6304,7 +6357,7 @@
       <c r="H713" s="4"/>
       <c r="I713" s="4"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A714" s="4"/>
       <c r="C714" s="4"/>
       <c r="D714" s="4"/>
@@ -6312,7 +6365,7 @@
       <c r="H714" s="4"/>
       <c r="I714" s="4"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A715" s="4"/>
       <c r="C715" s="4"/>
       <c r="D715" s="4"/>
@@ -6320,7 +6373,7 @@
       <c r="H715" s="4"/>
       <c r="I715" s="4"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A716" s="4"/>
       <c r="C716" s="4"/>
       <c r="D716" s="4"/>
@@ -6328,7 +6381,7 @@
       <c r="H716" s="4"/>
       <c r="I716" s="4"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A717" s="4"/>
       <c r="C717" s="4"/>
       <c r="D717" s="4"/>
@@ -6336,7 +6389,7 @@
       <c r="H717" s="4"/>
       <c r="I717" s="4"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A718" s="4"/>
       <c r="C718" s="4"/>
       <c r="D718" s="4"/>
@@ -6344,7 +6397,7 @@
       <c r="H718" s="4"/>
       <c r="I718" s="4"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A719" s="4"/>
       <c r="C719" s="4"/>
       <c r="D719" s="4"/>
@@ -6352,7 +6405,7 @@
       <c r="H719" s="4"/>
       <c r="I719" s="4"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A720" s="4"/>
       <c r="C720" s="4"/>
       <c r="D720" s="4"/>
@@ -6360,7 +6413,7 @@
       <c r="H720" s="4"/>
       <c r="I720" s="4"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A721" s="4"/>
       <c r="C721" s="4"/>
       <c r="D721" s="4"/>
@@ -6368,7 +6421,7 @@
       <c r="H721" s="4"/>
       <c r="I721" s="4"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A722" s="4"/>
       <c r="C722" s="4"/>
       <c r="D722" s="4"/>
@@ -6376,7 +6429,7 @@
       <c r="H722" s="4"/>
       <c r="I722" s="4"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A723" s="4"/>
       <c r="C723" s="4"/>
       <c r="D723" s="4"/>
@@ -6384,7 +6437,7 @@
       <c r="H723" s="4"/>
       <c r="I723" s="4"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A724" s="4"/>
       <c r="C724" s="4"/>
       <c r="D724" s="4"/>
@@ -6392,7 +6445,7 @@
       <c r="H724" s="4"/>
       <c r="I724" s="4"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A725" s="4"/>
       <c r="C725" s="4"/>
       <c r="D725" s="4"/>
@@ -6400,7 +6453,7 @@
       <c r="H725" s="4"/>
       <c r="I725" s="4"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A726" s="4"/>
       <c r="C726" s="4"/>
       <c r="D726" s="4"/>
@@ -6408,7 +6461,7 @@
       <c r="H726" s="4"/>
       <c r="I726" s="4"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A727" s="4"/>
       <c r="C727" s="4"/>
       <c r="D727" s="4"/>
@@ -6416,7 +6469,7 @@
       <c r="H727" s="4"/>
       <c r="I727" s="4"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A728" s="4"/>
       <c r="C728" s="4"/>
       <c r="D728" s="4"/>
@@ -6424,7 +6477,7 @@
       <c r="H728" s="4"/>
       <c r="I728" s="4"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A729" s="4"/>
       <c r="C729" s="4"/>
       <c r="D729" s="4"/>
@@ -6432,7 +6485,7 @@
       <c r="H729" s="4"/>
       <c r="I729" s="4"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A730" s="4"/>
       <c r="C730" s="4"/>
       <c r="D730" s="4"/>
@@ -6440,7 +6493,7 @@
       <c r="H730" s="4"/>
       <c r="I730" s="4"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A731" s="4"/>
       <c r="C731" s="4"/>
       <c r="D731" s="4"/>
@@ -6448,7 +6501,7 @@
       <c r="H731" s="4"/>
       <c r="I731" s="4"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A732" s="4"/>
       <c r="C732" s="4"/>
       <c r="D732" s="4"/>
@@ -6456,7 +6509,7 @@
       <c r="H732" s="4"/>
       <c r="I732" s="4"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A733" s="4"/>
       <c r="C733" s="4"/>
       <c r="D733" s="4"/>
@@ -6464,7 +6517,7 @@
       <c r="H733" s="4"/>
       <c r="I733" s="4"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A734" s="4"/>
       <c r="C734" s="4"/>
       <c r="D734" s="4"/>
@@ -6472,7 +6525,7 @@
       <c r="H734" s="4"/>
       <c r="I734" s="4"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A735" s="4"/>
       <c r="C735" s="4"/>
       <c r="D735" s="4"/>
@@ -6480,7 +6533,7 @@
       <c r="H735" s="4"/>
       <c r="I735" s="4"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A736" s="4"/>
       <c r="C736" s="4"/>
       <c r="D736" s="4"/>
@@ -6488,7 +6541,7 @@
       <c r="H736" s="4"/>
       <c r="I736" s="4"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A737" s="4"/>
       <c r="C737" s="4"/>
       <c r="D737" s="4"/>
@@ -6496,7 +6549,7 @@
       <c r="H737" s="4"/>
       <c r="I737" s="4"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A738" s="4"/>
       <c r="C738" s="4"/>
       <c r="D738" s="4"/>
@@ -6504,7 +6557,7 @@
       <c r="H738" s="4"/>
       <c r="I738" s="4"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A739" s="4"/>
       <c r="C739" s="4"/>
       <c r="D739" s="4"/>
@@ -6512,7 +6565,7 @@
       <c r="H739" s="4"/>
       <c r="I739" s="4"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A740" s="4"/>
       <c r="C740" s="4"/>
       <c r="D740" s="4"/>
@@ -6520,7 +6573,7 @@
       <c r="H740" s="4"/>
       <c r="I740" s="4"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A741" s="4"/>
       <c r="C741" s="4"/>
       <c r="D741" s="4"/>
@@ -6528,7 +6581,7 @@
       <c r="H741" s="4"/>
       <c r="I741" s="4"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A742" s="4"/>
       <c r="C742" s="4"/>
       <c r="D742" s="4"/>
@@ -6536,7 +6589,7 @@
       <c r="H742" s="4"/>
       <c r="I742" s="4"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A743" s="4"/>
       <c r="C743" s="4"/>
       <c r="D743" s="4"/>
@@ -6544,7 +6597,7 @@
       <c r="H743" s="4"/>
       <c r="I743" s="4"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A744" s="4"/>
       <c r="C744" s="4"/>
       <c r="D744" s="4"/>
@@ -6552,7 +6605,7 @@
       <c r="H744" s="4"/>
       <c r="I744" s="4"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A745" s="4"/>
       <c r="C745" s="4"/>
       <c r="D745" s="4"/>
@@ -6560,7 +6613,7 @@
       <c r="H745" s="4"/>
       <c r="I745" s="4"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A746" s="4"/>
       <c r="C746" s="4"/>
       <c r="D746" s="4"/>
@@ -6568,7 +6621,7 @@
       <c r="H746" s="4"/>
       <c r="I746" s="4"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A747" s="4"/>
       <c r="C747" s="4"/>
       <c r="D747" s="4"/>
@@ -6576,7 +6629,7 @@
       <c r="H747" s="4"/>
       <c r="I747" s="4"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A748" s="4"/>
       <c r="C748" s="4"/>
       <c r="D748" s="4"/>
@@ -6584,7 +6637,7 @@
       <c r="H748" s="4"/>
       <c r="I748" s="4"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A749" s="4"/>
       <c r="C749" s="4"/>
       <c r="D749" s="4"/>
@@ -6592,7 +6645,7 @@
       <c r="H749" s="4"/>
       <c r="I749" s="4"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A750" s="4"/>
       <c r="C750" s="4"/>
       <c r="D750" s="4"/>
@@ -6600,7 +6653,7 @@
       <c r="H750" s="4"/>
       <c r="I750" s="4"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A751" s="4"/>
       <c r="C751" s="4"/>
       <c r="D751" s="4"/>
@@ -6608,7 +6661,7 @@
       <c r="H751" s="4"/>
       <c r="I751" s="4"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A752" s="4"/>
       <c r="C752" s="4"/>
       <c r="D752" s="4"/>
@@ -6616,7 +6669,7 @@
       <c r="H752" s="4"/>
       <c r="I752" s="4"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A753" s="4"/>
       <c r="C753" s="4"/>
       <c r="D753" s="4"/>
@@ -6624,7 +6677,7 @@
       <c r="H753" s="4"/>
       <c r="I753" s="4"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A754" s="4"/>
       <c r="C754" s="4"/>
       <c r="D754" s="4"/>
@@ -6632,7 +6685,7 @@
       <c r="H754" s="4"/>
       <c r="I754" s="4"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A755" s="4"/>
       <c r="C755" s="4"/>
       <c r="D755" s="4"/>
@@ -6640,7 +6693,7 @@
       <c r="H755" s="4"/>
       <c r="I755" s="4"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A756" s="4"/>
       <c r="C756" s="4"/>
       <c r="D756" s="4"/>
@@ -6648,7 +6701,7 @@
       <c r="H756" s="4"/>
       <c r="I756" s="4"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A757" s="4"/>
       <c r="C757" s="4"/>
       <c r="D757" s="4"/>
@@ -6656,7 +6709,7 @@
       <c r="H757" s="4"/>
       <c r="I757" s="4"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A758" s="4"/>
       <c r="C758" s="4"/>
       <c r="D758" s="4"/>
@@ -6664,7 +6717,7 @@
       <c r="H758" s="4"/>
       <c r="I758" s="4"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A759" s="4"/>
       <c r="C759" s="4"/>
       <c r="D759" s="4"/>
@@ -6672,7 +6725,7 @@
       <c r="H759" s="4"/>
       <c r="I759" s="4"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A760" s="4"/>
       <c r="C760" s="4"/>
       <c r="D760" s="4"/>
@@ -6680,7 +6733,7 @@
       <c r="H760" s="4"/>
       <c r="I760" s="4"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A761" s="4"/>
       <c r="C761" s="4"/>
       <c r="D761" s="4"/>
@@ -6688,7 +6741,7 @@
       <c r="H761" s="4"/>
       <c r="I761" s="4"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A762" s="4"/>
       <c r="C762" s="4"/>
       <c r="D762" s="4"/>
@@ -6696,7 +6749,7 @@
       <c r="H762" s="4"/>
       <c r="I762" s="4"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A763" s="4"/>
       <c r="C763" s="4"/>
       <c r="D763" s="4"/>
@@ -6704,7 +6757,7 @@
       <c r="H763" s="4"/>
       <c r="I763" s="4"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A764" s="4"/>
       <c r="C764" s="4"/>
       <c r="D764" s="4"/>
@@ -6712,7 +6765,7 @@
       <c r="H764" s="4"/>
       <c r="I764" s="4"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A765" s="4"/>
       <c r="C765" s="4"/>
       <c r="D765" s="4"/>
@@ -6720,7 +6773,7 @@
       <c r="H765" s="4"/>
       <c r="I765" s="4"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A766" s="4"/>
       <c r="C766" s="4"/>
       <c r="D766" s="4"/>
@@ -6728,7 +6781,7 @@
       <c r="H766" s="4"/>
       <c r="I766" s="4"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A767" s="4"/>
       <c r="C767" s="4"/>
       <c r="D767" s="4"/>
@@ -6736,7 +6789,7 @@
       <c r="H767" s="4"/>
       <c r="I767" s="4"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A768" s="4"/>
       <c r="C768" s="4"/>
       <c r="D768" s="4"/>
@@ -6744,7 +6797,7 @@
       <c r="H768" s="4"/>
       <c r="I768" s="4"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A769" s="4"/>
       <c r="C769" s="4"/>
       <c r="D769" s="4"/>
@@ -6752,7 +6805,7 @@
       <c r="H769" s="4"/>
       <c r="I769" s="4"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A770" s="4"/>
       <c r="C770" s="4"/>
       <c r="D770" s="4"/>
@@ -6760,7 +6813,7 @@
       <c r="H770" s="4"/>
       <c r="I770" s="4"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A771" s="4"/>
       <c r="C771" s="4"/>
       <c r="D771" s="4"/>
@@ -6768,7 +6821,7 @@
       <c r="H771" s="4"/>
       <c r="I771" s="4"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A772" s="4"/>
       <c r="C772" s="4"/>
       <c r="D772" s="4"/>
@@ -6776,7 +6829,7 @@
       <c r="H772" s="4"/>
       <c r="I772" s="4"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A773" s="4"/>
       <c r="C773" s="4"/>
       <c r="D773" s="4"/>
@@ -6784,7 +6837,7 @@
       <c r="H773" s="4"/>
       <c r="I773" s="4"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A774" s="4"/>
       <c r="C774" s="4"/>
       <c r="D774" s="4"/>
@@ -6792,7 +6845,7 @@
       <c r="H774" s="4"/>
       <c r="I774" s="4"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A775" s="4"/>
       <c r="C775" s="4"/>
       <c r="D775" s="4"/>
@@ -6800,7 +6853,7 @@
       <c r="H775" s="4"/>
       <c r="I775" s="4"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A776" s="4"/>
       <c r="C776" s="4"/>
       <c r="D776" s="4"/>
@@ -6808,7 +6861,7 @@
       <c r="H776" s="4"/>
       <c r="I776" s="4"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A777" s="4"/>
       <c r="C777" s="4"/>
       <c r="D777" s="4"/>
@@ -6816,7 +6869,7 @@
       <c r="H777" s="4"/>
       <c r="I777" s="4"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A778" s="4"/>
       <c r="C778" s="4"/>
       <c r="D778" s="4"/>
@@ -6824,7 +6877,7 @@
       <c r="H778" s="4"/>
       <c r="I778" s="4"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A779" s="4"/>
       <c r="C779" s="4"/>
       <c r="D779" s="4"/>
@@ -6832,7 +6885,7 @@
       <c r="H779" s="4"/>
       <c r="I779" s="4"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A780" s="4"/>
       <c r="C780" s="4"/>
       <c r="D780" s="4"/>
@@ -6840,7 +6893,7 @@
       <c r="H780" s="4"/>
       <c r="I780" s="4"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A781" s="4"/>
       <c r="C781" s="4"/>
       <c r="D781" s="4"/>
@@ -6848,7 +6901,7 @@
       <c r="H781" s="4"/>
       <c r="I781" s="4"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A782" s="4"/>
       <c r="C782" s="4"/>
       <c r="D782" s="4"/>
@@ -6856,7 +6909,7 @@
       <c r="H782" s="4"/>
       <c r="I782" s="4"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A783" s="4"/>
       <c r="C783" s="4"/>
       <c r="D783" s="4"/>
@@ -6864,7 +6917,7 @@
       <c r="H783" s="4"/>
       <c r="I783" s="4"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A784" s="4"/>
       <c r="C784" s="4"/>
       <c r="D784" s="4"/>
@@ -6872,7 +6925,7 @@
       <c r="H784" s="4"/>
       <c r="I784" s="4"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A785" s="4"/>
       <c r="C785" s="4"/>
       <c r="D785" s="4"/>
@@ -6880,7 +6933,7 @@
       <c r="H785" s="4"/>
       <c r="I785" s="4"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A786" s="4"/>
       <c r="C786" s="4"/>
       <c r="D786" s="4"/>
@@ -6888,7 +6941,7 @@
       <c r="H786" s="4"/>
       <c r="I786" s="4"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A787" s="4"/>
       <c r="C787" s="4"/>
       <c r="D787" s="4"/>
@@ -6896,7 +6949,7 @@
       <c r="H787" s="4"/>
       <c r="I787" s="4"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A788" s="4"/>
       <c r="C788" s="4"/>
       <c r="D788" s="4"/>
@@ -6904,7 +6957,7 @@
       <c r="H788" s="4"/>
       <c r="I788" s="4"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A789" s="4"/>
       <c r="C789" s="4"/>
       <c r="D789" s="4"/>
@@ -6912,7 +6965,7 @@
       <c r="H789" s="4"/>
       <c r="I789" s="4"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A790" s="4"/>
       <c r="C790" s="4"/>
       <c r="D790" s="4"/>
@@ -6920,7 +6973,7 @@
       <c r="H790" s="4"/>
       <c r="I790" s="4"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A791" s="4"/>
       <c r="C791" s="4"/>
       <c r="D791" s="4"/>
@@ -6928,7 +6981,7 @@
       <c r="H791" s="4"/>
       <c r="I791" s="4"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A792" s="4"/>
       <c r="C792" s="4"/>
       <c r="D792" s="4"/>
@@ -6936,7 +6989,7 @@
       <c r="H792" s="4"/>
       <c r="I792" s="4"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A793" s="4"/>
       <c r="C793" s="4"/>
       <c r="D793" s="4"/>
@@ -6944,7 +6997,7 @@
       <c r="H793" s="4"/>
       <c r="I793" s="4"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A794" s="4"/>
       <c r="C794" s="4"/>
       <c r="D794" s="4"/>
@@ -6952,7 +7005,7 @@
       <c r="H794" s="4"/>
       <c r="I794" s="4"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A795" s="4"/>
       <c r="C795" s="4"/>
       <c r="D795" s="4"/>
@@ -6960,7 +7013,7 @@
       <c r="H795" s="4"/>
       <c r="I795" s="4"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A796" s="4"/>
       <c r="C796" s="4"/>
       <c r="D796" s="4"/>
@@ -6968,7 +7021,7 @@
       <c r="H796" s="4"/>
       <c r="I796" s="4"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A797" s="4"/>
       <c r="C797" s="4"/>
       <c r="D797" s="4"/>
@@ -6976,7 +7029,7 @@
       <c r="H797" s="4"/>
       <c r="I797" s="4"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A798" s="4"/>
       <c r="C798" s="4"/>
       <c r="D798" s="4"/>
@@ -6984,7 +7037,7 @@
       <c r="H798" s="4"/>
       <c r="I798" s="4"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A799" s="4"/>
       <c r="C799" s="4"/>
       <c r="D799" s="4"/>
@@ -6992,7 +7045,7 @@
       <c r="H799" s="4"/>
       <c r="I799" s="4"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A800" s="4"/>
       <c r="C800" s="4"/>
       <c r="D800" s="4"/>
@@ -7000,7 +7053,7 @@
       <c r="H800" s="4"/>
       <c r="I800" s="4"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A801" s="4"/>
       <c r="C801" s="4"/>
       <c r="D801" s="4"/>
@@ -7008,7 +7061,7 @@
       <c r="H801" s="4"/>
       <c r="I801" s="4"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A802" s="4"/>
       <c r="C802" s="4"/>
       <c r="D802" s="4"/>
@@ -7016,7 +7069,7 @@
       <c r="H802" s="4"/>
       <c r="I802" s="4"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A803" s="4"/>
       <c r="C803" s="4"/>
       <c r="D803" s="4"/>
@@ -7024,7 +7077,7 @@
       <c r="H803" s="4"/>
       <c r="I803" s="4"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A804" s="4"/>
       <c r="C804" s="4"/>
       <c r="D804" s="4"/>
@@ -7032,7 +7085,7 @@
       <c r="H804" s="4"/>
       <c r="I804" s="4"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A805" s="4"/>
       <c r="C805" s="4"/>
       <c r="D805" s="4"/>
@@ -7040,7 +7093,7 @@
       <c r="H805" s="4"/>
       <c r="I805" s="4"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A806" s="4"/>
       <c r="C806" s="4"/>
       <c r="D806" s="4"/>
@@ -7048,7 +7101,7 @@
       <c r="H806" s="4"/>
       <c r="I806" s="4"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A807" s="4"/>
       <c r="C807" s="4"/>
       <c r="D807" s="4"/>
@@ -7056,7 +7109,7 @@
       <c r="H807" s="4"/>
       <c r="I807" s="4"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A808" s="4"/>
       <c r="C808" s="4"/>
       <c r="D808" s="4"/>
@@ -7064,7 +7117,7 @@
       <c r="H808" s="4"/>
       <c r="I808" s="4"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A809" s="4"/>
       <c r="C809" s="4"/>
       <c r="D809" s="4"/>
@@ -7072,7 +7125,7 @@
       <c r="H809" s="4"/>
       <c r="I809" s="4"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A810" s="4"/>
       <c r="C810" s="4"/>
       <c r="D810" s="4"/>
@@ -7080,7 +7133,7 @@
       <c r="H810" s="4"/>
       <c r="I810" s="4"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A811" s="4"/>
       <c r="C811" s="4"/>
       <c r="D811" s="4"/>
@@ -7088,7 +7141,7 @@
       <c r="H811" s="4"/>
       <c r="I811" s="4"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A812" s="4"/>
       <c r="C812" s="4"/>
       <c r="D812" s="4"/>
@@ -7096,7 +7149,7 @@
       <c r="H812" s="4"/>
       <c r="I812" s="4"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A813" s="4"/>
       <c r="C813" s="4"/>
       <c r="D813" s="4"/>
@@ -7104,7 +7157,7 @@
       <c r="H813" s="4"/>
       <c r="I813" s="4"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A814" s="4"/>
       <c r="C814" s="4"/>
       <c r="D814" s="4"/>
@@ -7112,7 +7165,7 @@
       <c r="H814" s="4"/>
       <c r="I814" s="4"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A815" s="4"/>
       <c r="C815" s="4"/>
       <c r="D815" s="4"/>
@@ -7120,7 +7173,7 @@
       <c r="H815" s="4"/>
       <c r="I815" s="4"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A816" s="4"/>
       <c r="C816" s="4"/>
       <c r="D816" s="4"/>
@@ -7128,7 +7181,7 @@
       <c r="H816" s="4"/>
       <c r="I816" s="4"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A817" s="4"/>
       <c r="C817" s="4"/>
       <c r="D817" s="4"/>
@@ -7136,7 +7189,7 @@
       <c r="H817" s="4"/>
       <c r="I817" s="4"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A818" s="4"/>
       <c r="C818" s="4"/>
       <c r="D818" s="4"/>
@@ -7144,7 +7197,7 @@
       <c r="H818" s="4"/>
       <c r="I818" s="4"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A819" s="4"/>
       <c r="C819" s="4"/>
       <c r="D819" s="4"/>
@@ -7152,7 +7205,7 @@
       <c r="H819" s="4"/>
       <c r="I819" s="4"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A820" s="4"/>
       <c r="C820" s="4"/>
       <c r="D820" s="4"/>
@@ -7160,7 +7213,7 @@
       <c r="H820" s="4"/>
       <c r="I820" s="4"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A821" s="4"/>
       <c r="C821" s="4"/>
       <c r="D821" s="4"/>
@@ -7168,7 +7221,7 @@
       <c r="H821" s="4"/>
       <c r="I821" s="4"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A822" s="4"/>
       <c r="C822" s="4"/>
       <c r="D822" s="4"/>
@@ -7176,7 +7229,7 @@
       <c r="H822" s="4"/>
       <c r="I822" s="4"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A823" s="4"/>
       <c r="C823" s="4"/>
       <c r="D823" s="4"/>
@@ -7184,7 +7237,7 @@
       <c r="H823" s="4"/>
       <c r="I823" s="4"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A824" s="4"/>
       <c r="C824" s="4"/>
       <c r="D824" s="4"/>
@@ -7192,7 +7245,7 @@
       <c r="H824" s="4"/>
       <c r="I824" s="4"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A825" s="4"/>
       <c r="C825" s="4"/>
       <c r="D825" s="4"/>
@@ -7200,7 +7253,7 @@
       <c r="H825" s="4"/>
       <c r="I825" s="4"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A826" s="4"/>
       <c r="C826" s="4"/>
       <c r="D826" s="4"/>
@@ -7208,7 +7261,7 @@
       <c r="H826" s="4"/>
       <c r="I826" s="4"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A827" s="4"/>
       <c r="C827" s="4"/>
       <c r="D827" s="4"/>
@@ -7216,7 +7269,7 @@
       <c r="H827" s="4"/>
       <c r="I827" s="4"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A828" s="4"/>
       <c r="C828" s="4"/>
       <c r="D828" s="4"/>
@@ -7224,7 +7277,7 @@
       <c r="H828" s="4"/>
       <c r="I828" s="4"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A829" s="4"/>
       <c r="C829" s="4"/>
       <c r="D829" s="4"/>
@@ -7232,7 +7285,7 @@
       <c r="H829" s="4"/>
       <c r="I829" s="4"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A830" s="4"/>
       <c r="C830" s="4"/>
       <c r="D830" s="4"/>
@@ -7240,7 +7293,7 @@
       <c r="H830" s="4"/>
       <c r="I830" s="4"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A831" s="4"/>
       <c r="C831" s="4"/>
       <c r="D831" s="4"/>
@@ -7248,7 +7301,7 @@
       <c r="H831" s="4"/>
       <c r="I831" s="4"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A832" s="4"/>
       <c r="C832" s="4"/>
       <c r="D832" s="4"/>
@@ -7256,7 +7309,7 @@
       <c r="H832" s="4"/>
       <c r="I832" s="4"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A833" s="4"/>
       <c r="C833" s="4"/>
       <c r="D833" s="4"/>
@@ -7264,7 +7317,7 @@
       <c r="H833" s="4"/>
       <c r="I833" s="4"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A834" s="4"/>
       <c r="C834" s="4"/>
       <c r="D834" s="4"/>
@@ -7272,7 +7325,7 @@
       <c r="H834" s="4"/>
       <c r="I834" s="4"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A835" s="4"/>
       <c r="C835" s="4"/>
       <c r="D835" s="4"/>
@@ -7280,7 +7333,7 @@
       <c r="H835" s="4"/>
       <c r="I835" s="4"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A836" s="4"/>
       <c r="C836" s="4"/>
       <c r="D836" s="4"/>
@@ -7288,7 +7341,7 @@
       <c r="H836" s="4"/>
       <c r="I836" s="4"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A837" s="4"/>
       <c r="C837" s="4"/>
       <c r="D837" s="4"/>
@@ -7296,7 +7349,7 @@
       <c r="H837" s="4"/>
       <c r="I837" s="4"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A838" s="4"/>
       <c r="C838" s="4"/>
       <c r="D838" s="4"/>
@@ -7304,7 +7357,7 @@
       <c r="H838" s="4"/>
       <c r="I838" s="4"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A839" s="4"/>
       <c r="C839" s="4"/>
       <c r="D839" s="4"/>
@@ -7312,7 +7365,7 @@
       <c r="H839" s="4"/>
       <c r="I839" s="4"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A840" s="4"/>
       <c r="C840" s="4"/>
       <c r="D840" s="4"/>
@@ -7320,7 +7373,7 @@
       <c r="H840" s="4"/>
       <c r="I840" s="4"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A841" s="4"/>
       <c r="C841" s="4"/>
       <c r="D841" s="4"/>
@@ -7328,7 +7381,7 @@
       <c r="H841" s="4"/>
       <c r="I841" s="4"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A842" s="4"/>
       <c r="C842" s="4"/>
       <c r="D842" s="4"/>
@@ -7336,7 +7389,7 @@
       <c r="H842" s="4"/>
       <c r="I842" s="4"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A843" s="4"/>
       <c r="C843" s="4"/>
       <c r="D843" s="4"/>
@@ -7344,7 +7397,7 @@
       <c r="H843" s="4"/>
       <c r="I843" s="4"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A844" s="4"/>
       <c r="C844" s="4"/>
       <c r="D844" s="4"/>
@@ -7352,7 +7405,7 @@
       <c r="H844" s="4"/>
       <c r="I844" s="4"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A845" s="4"/>
       <c r="C845" s="4"/>
       <c r="D845" s="4"/>
@@ -7360,7 +7413,7 @@
       <c r="H845" s="4"/>
       <c r="I845" s="4"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A846" s="4"/>
       <c r="C846" s="4"/>
       <c r="D846" s="4"/>
@@ -7368,7 +7421,7 @@
       <c r="H846" s="4"/>
       <c r="I846" s="4"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A847" s="4"/>
       <c r="C847" s="4"/>
       <c r="D847" s="4"/>
@@ -7376,7 +7429,7 @@
       <c r="H847" s="4"/>
       <c r="I847" s="4"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A848" s="4"/>
       <c r="C848" s="4"/>
       <c r="D848" s="4"/>
@@ -7384,7 +7437,7 @@
       <c r="H848" s="4"/>
       <c r="I848" s="4"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A849" s="4"/>
       <c r="C849" s="4"/>
       <c r="D849" s="4"/>
@@ -7392,7 +7445,7 @@
       <c r="H849" s="4"/>
       <c r="I849" s="4"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A850" s="4"/>
       <c r="C850" s="4"/>
       <c r="D850" s="4"/>
@@ -7400,7 +7453,7 @@
       <c r="H850" s="4"/>
       <c r="I850" s="4"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A851" s="4"/>
       <c r="C851" s="4"/>
       <c r="D851" s="4"/>
@@ -7408,7 +7461,7 @@
       <c r="H851" s="4"/>
       <c r="I851" s="4"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A852" s="4"/>
       <c r="C852" s="4"/>
       <c r="D852" s="4"/>
@@ -7416,7 +7469,7 @@
       <c r="H852" s="4"/>
       <c r="I852" s="4"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A853" s="4"/>
       <c r="C853" s="4"/>
       <c r="D853" s="4"/>
@@ -7424,7 +7477,7 @@
       <c r="H853" s="4"/>
       <c r="I853" s="4"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A854" s="4"/>
       <c r="C854" s="4"/>
       <c r="D854" s="4"/>
@@ -7432,7 +7485,7 @@
       <c r="H854" s="4"/>
       <c r="I854" s="4"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A855" s="4"/>
       <c r="C855" s="4"/>
       <c r="D855" s="4"/>
@@ -7440,7 +7493,7 @@
       <c r="H855" s="4"/>
       <c r="I855" s="4"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A856" s="4"/>
       <c r="C856" s="4"/>
       <c r="D856" s="4"/>
@@ -7448,7 +7501,7 @@
       <c r="H856" s="4"/>
       <c r="I856" s="4"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A857" s="4"/>
       <c r="C857" s="4"/>
       <c r="D857" s="4"/>
@@ -7456,7 +7509,7 @@
       <c r="H857" s="4"/>
       <c r="I857" s="4"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A858" s="4"/>
       <c r="C858" s="4"/>
       <c r="D858" s="4"/>
@@ -7464,7 +7517,7 @@
       <c r="H858" s="4"/>
       <c r="I858" s="4"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A859" s="4"/>
       <c r="C859" s="4"/>
       <c r="D859" s="4"/>
@@ -7472,7 +7525,7 @@
       <c r="H859" s="4"/>
       <c r="I859" s="4"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A860" s="4"/>
       <c r="C860" s="4"/>
       <c r="D860" s="4"/>
@@ -7480,7 +7533,7 @@
       <c r="H860" s="4"/>
       <c r="I860" s="4"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A861" s="4"/>
       <c r="C861" s="4"/>
       <c r="D861" s="4"/>
@@ -7488,7 +7541,7 @@
       <c r="H861" s="4"/>
       <c r="I861" s="4"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A862" s="4"/>
       <c r="C862" s="4"/>
       <c r="D862" s="4"/>
@@ -7496,7 +7549,7 @@
       <c r="H862" s="4"/>
       <c r="I862" s="4"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A863" s="4"/>
       <c r="C863" s="4"/>
       <c r="D863" s="4"/>
@@ -7504,7 +7557,7 @@
       <c r="H863" s="4"/>
       <c r="I863" s="4"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A864" s="4"/>
       <c r="C864" s="4"/>
       <c r="D864" s="4"/>
@@ -7512,7 +7565,7 @@
       <c r="H864" s="4"/>
       <c r="I864" s="4"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A865" s="4"/>
       <c r="C865" s="4"/>
       <c r="D865" s="4"/>
@@ -7520,7 +7573,7 @@
       <c r="H865" s="4"/>
       <c r="I865" s="4"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A866" s="4"/>
       <c r="C866" s="4"/>
       <c r="D866" s="4"/>
@@ -7528,7 +7581,7 @@
       <c r="H866" s="4"/>
       <c r="I866" s="4"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A867" s="4"/>
       <c r="C867" s="4"/>
       <c r="D867" s="4"/>
@@ -7536,7 +7589,7 @@
       <c r="H867" s="4"/>
       <c r="I867" s="4"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A868" s="4"/>
       <c r="C868" s="4"/>
       <c r="D868" s="4"/>
@@ -7544,7 +7597,7 @@
       <c r="H868" s="4"/>
       <c r="I868" s="4"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A869" s="4"/>
       <c r="C869" s="4"/>
       <c r="D869" s="4"/>
@@ -7552,7 +7605,7 @@
       <c r="H869" s="4"/>
       <c r="I869" s="4"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A870" s="4"/>
       <c r="C870" s="4"/>
       <c r="D870" s="4"/>
@@ -7560,7 +7613,7 @@
       <c r="H870" s="4"/>
       <c r="I870" s="4"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A871" s="4"/>
       <c r="C871" s="4"/>
       <c r="D871" s="4"/>
@@ -7568,7 +7621,7 @@
       <c r="H871" s="4"/>
       <c r="I871" s="4"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A872" s="4"/>
       <c r="C872" s="4"/>
       <c r="D872" s="4"/>
@@ -7576,7 +7629,7 @@
       <c r="H872" s="4"/>
       <c r="I872" s="4"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A873" s="4"/>
       <c r="C873" s="4"/>
       <c r="D873" s="4"/>
@@ -7584,7 +7637,7 @@
       <c r="H873" s="4"/>
       <c r="I873" s="4"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A874" s="4"/>
       <c r="C874" s="4"/>
       <c r="D874" s="4"/>
@@ -7592,7 +7645,7 @@
       <c r="H874" s="4"/>
       <c r="I874" s="4"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A875" s="4"/>
       <c r="C875" s="4"/>
       <c r="D875" s="4"/>
@@ -7600,7 +7653,7 @@
       <c r="H875" s="4"/>
       <c r="I875" s="4"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A876" s="4"/>
       <c r="C876" s="4"/>
       <c r="D876" s="4"/>
@@ -7608,7 +7661,7 @@
       <c r="H876" s="4"/>
       <c r="I876" s="4"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A877" s="4"/>
       <c r="C877" s="4"/>
       <c r="D877" s="4"/>
@@ -7616,7 +7669,7 @@
       <c r="H877" s="4"/>
       <c r="I877" s="4"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A878" s="4"/>
       <c r="C878" s="4"/>
       <c r="D878" s="4"/>
@@ -7624,7 +7677,7 @@
       <c r="H878" s="4"/>
       <c r="I878" s="4"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A879" s="4"/>
       <c r="C879" s="4"/>
       <c r="D879" s="4"/>
@@ -7632,7 +7685,7 @@
       <c r="H879" s="4"/>
       <c r="I879" s="4"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A880" s="4"/>
       <c r="C880" s="4"/>
       <c r="D880" s="4"/>
@@ -7640,7 +7693,7 @@
       <c r="H880" s="4"/>
       <c r="I880" s="4"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A881" s="4"/>
       <c r="C881" s="4"/>
       <c r="D881" s="4"/>
@@ -7648,7 +7701,7 @@
       <c r="H881" s="4"/>
       <c r="I881" s="4"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A882" s="4"/>
       <c r="C882" s="4"/>
       <c r="D882" s="4"/>
@@ -7656,7 +7709,7 @@
       <c r="H882" s="4"/>
       <c r="I882" s="4"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A883" s="4"/>
       <c r="C883" s="4"/>
       <c r="D883" s="4"/>
@@ -7664,7 +7717,7 @@
       <c r="H883" s="4"/>
       <c r="I883" s="4"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A884" s="4"/>
       <c r="C884" s="4"/>
       <c r="D884" s="4"/>
@@ -7672,7 +7725,7 @@
       <c r="H884" s="4"/>
       <c r="I884" s="4"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A885" s="4"/>
       <c r="C885" s="4"/>
       <c r="D885" s="4"/>
@@ -7680,7 +7733,7 @@
       <c r="H885" s="4"/>
       <c r="I885" s="4"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A886" s="4"/>
       <c r="C886" s="4"/>
       <c r="D886" s="4"/>
@@ -7688,7 +7741,7 @@
       <c r="H886" s="4"/>
       <c r="I886" s="4"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A887" s="4"/>
       <c r="C887" s="4"/>
       <c r="D887" s="4"/>
@@ -7696,7 +7749,7 @@
       <c r="H887" s="4"/>
       <c r="I887" s="4"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A888" s="4"/>
       <c r="C888" s="4"/>
       <c r="D888" s="4"/>
@@ -7704,7 +7757,7 @@
       <c r="H888" s="4"/>
       <c r="I888" s="4"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A889" s="4"/>
       <c r="C889" s="4"/>
       <c r="D889" s="4"/>
@@ -7712,7 +7765,7 @@
       <c r="H889" s="4"/>
       <c r="I889" s="4"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A890" s="4"/>
       <c r="C890" s="4"/>
       <c r="D890" s="4"/>
@@ -7720,7 +7773,7 @@
       <c r="H890" s="4"/>
       <c r="I890" s="4"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A891" s="4"/>
       <c r="C891" s="4"/>
       <c r="D891" s="4"/>
@@ -7728,7 +7781,7 @@
       <c r="H891" s="4"/>
       <c r="I891" s="4"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A892" s="4"/>
       <c r="C892" s="4"/>
       <c r="D892" s="4"/>
@@ -7736,7 +7789,7 @@
       <c r="H892" s="4"/>
       <c r="I892" s="4"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A893" s="4"/>
       <c r="C893" s="4"/>
       <c r="D893" s="4"/>
@@ -7744,7 +7797,7 @@
       <c r="H893" s="4"/>
       <c r="I893" s="4"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A894" s="4"/>
       <c r="C894" s="4"/>
       <c r="D894" s="4"/>
@@ -7752,7 +7805,7 @@
       <c r="H894" s="4"/>
       <c r="I894" s="4"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A895" s="4"/>
       <c r="C895" s="4"/>
       <c r="D895" s="4"/>
@@ -7760,7 +7813,7 @@
       <c r="H895" s="4"/>
       <c r="I895" s="4"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A896" s="4"/>
       <c r="C896" s="4"/>
       <c r="D896" s="4"/>
@@ -7768,7 +7821,7 @@
       <c r="H896" s="4"/>
       <c r="I896" s="4"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A897" s="4"/>
       <c r="C897" s="4"/>
       <c r="D897" s="4"/>
@@ -7776,7 +7829,7 @@
       <c r="H897" s="4"/>
       <c r="I897" s="4"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A898" s="4"/>
       <c r="C898" s="4"/>
       <c r="D898" s="4"/>
@@ -7784,7 +7837,7 @@
       <c r="H898" s="4"/>
       <c r="I898" s="4"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A899" s="4"/>
       <c r="C899" s="4"/>
       <c r="D899" s="4"/>
@@ -7792,7 +7845,7 @@
       <c r="H899" s="4"/>
       <c r="I899" s="4"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A900" s="4"/>
       <c r="C900" s="4"/>
       <c r="D900" s="4"/>
@@ -7800,7 +7853,7 @@
       <c r="H900" s="4"/>
       <c r="I900" s="4"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A901" s="4"/>
       <c r="C901" s="4"/>
       <c r="D901" s="4"/>
@@ -7808,7 +7861,7 @@
       <c r="H901" s="4"/>
       <c r="I901" s="4"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A902" s="4"/>
       <c r="C902" s="4"/>
       <c r="D902" s="4"/>
@@ -7816,7 +7869,7 @@
       <c r="H902" s="4"/>
       <c r="I902" s="4"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A903" s="4"/>
       <c r="C903" s="4"/>
       <c r="D903" s="4"/>
@@ -7824,7 +7877,7 @@
       <c r="H903" s="4"/>
       <c r="I903" s="4"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A904" s="4"/>
       <c r="C904" s="4"/>
       <c r="D904" s="4"/>
@@ -7832,7 +7885,7 @@
       <c r="H904" s="4"/>
       <c r="I904" s="4"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A905" s="4"/>
       <c r="C905" s="4"/>
       <c r="D905" s="4"/>
@@ -7840,7 +7893,7 @@
       <c r="H905" s="4"/>
       <c r="I905" s="4"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A906" s="4"/>
       <c r="C906" s="4"/>
       <c r="D906" s="4"/>
@@ -7848,7 +7901,7 @@
       <c r="H906" s="4"/>
       <c r="I906" s="4"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A907" s="4"/>
       <c r="C907" s="4"/>
       <c r="D907" s="4"/>
@@ -7856,7 +7909,7 @@
       <c r="H907" s="4"/>
       <c r="I907" s="4"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A908" s="4"/>
       <c r="C908" s="4"/>
       <c r="D908" s="4"/>
@@ -7864,7 +7917,7 @@
       <c r="H908" s="4"/>
       <c r="I908" s="4"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A909" s="4"/>
       <c r="C909" s="4"/>
       <c r="D909" s="4"/>
@@ -7872,7 +7925,7 @@
       <c r="H909" s="4"/>
       <c r="I909" s="4"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A910" s="4"/>
       <c r="C910" s="4"/>
       <c r="D910" s="4"/>
@@ -7880,7 +7933,7 @@
       <c r="H910" s="4"/>
       <c r="I910" s="4"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A911" s="4"/>
       <c r="C911" s="4"/>
       <c r="D911" s="4"/>
@@ -7888,7 +7941,7 @@
       <c r="H911" s="4"/>
       <c r="I911" s="4"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A912" s="4"/>
       <c r="C912" s="4"/>
       <c r="D912" s="4"/>
@@ -7896,7 +7949,7 @@
       <c r="H912" s="4"/>
       <c r="I912" s="4"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A913" s="4"/>
       <c r="C913" s="4"/>
       <c r="D913" s="4"/>
@@ -7904,7 +7957,7 @@
       <c r="H913" s="4"/>
       <c r="I913" s="4"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A914" s="4"/>
       <c r="C914" s="4"/>
       <c r="D914" s="4"/>
@@ -7912,7 +7965,7 @@
       <c r="H914" s="4"/>
       <c r="I914" s="4"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A915" s="4"/>
       <c r="C915" s="4"/>
       <c r="D915" s="4"/>
@@ -7920,7 +7973,7 @@
       <c r="H915" s="4"/>
       <c r="I915" s="4"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A916" s="4"/>
       <c r="C916" s="4"/>
       <c r="D916" s="4"/>
@@ -7928,7 +7981,7 @@
       <c r="H916" s="4"/>
       <c r="I916" s="4"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A917" s="4"/>
       <c r="C917" s="4"/>
       <c r="D917" s="4"/>
@@ -7936,7 +7989,7 @@
       <c r="H917" s="4"/>
       <c r="I917" s="4"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A918" s="4"/>
       <c r="C918" s="4"/>
       <c r="D918" s="4"/>
@@ -7944,7 +7997,7 @@
       <c r="H918" s="4"/>
       <c r="I918" s="4"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A919" s="4"/>
       <c r="C919" s="4"/>
       <c r="D919" s="4"/>
@@ -7952,7 +8005,7 @@
       <c r="H919" s="4"/>
       <c r="I919" s="4"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A920" s="4"/>
       <c r="C920" s="4"/>
       <c r="D920" s="4"/>
@@ -7960,7 +8013,7 @@
       <c r="H920" s="4"/>
       <c r="I920" s="4"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A921" s="4"/>
       <c r="C921" s="4"/>
       <c r="D921" s="4"/>
@@ -7968,7 +8021,7 @@
       <c r="H921" s="4"/>
       <c r="I921" s="4"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A922" s="4"/>
       <c r="C922" s="4"/>
       <c r="D922" s="4"/>
@@ -7976,7 +8029,7 @@
       <c r="H922" s="4"/>
       <c r="I922" s="4"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A923" s="4"/>
       <c r="C923" s="4"/>
       <c r="D923" s="4"/>
@@ -7984,7 +8037,7 @@
       <c r="H923" s="4"/>
       <c r="I923" s="4"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A924" s="4"/>
       <c r="C924" s="4"/>
       <c r="D924" s="4"/>
@@ -7992,7 +8045,7 @@
       <c r="H924" s="4"/>
       <c r="I924" s="4"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A925" s="4"/>
       <c r="C925" s="4"/>
       <c r="D925" s="4"/>
@@ -8000,7 +8053,7 @@
       <c r="H925" s="4"/>
       <c r="I925" s="4"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A926" s="4"/>
       <c r="C926" s="4"/>
       <c r="D926" s="4"/>
@@ -8008,7 +8061,7 @@
       <c r="H926" s="4"/>
       <c r="I926" s="4"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A927" s="4"/>
       <c r="C927" s="4"/>
       <c r="D927" s="4"/>
@@ -8016,7 +8069,7 @@
       <c r="H927" s="4"/>
       <c r="I927" s="4"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A928" s="4"/>
       <c r="C928" s="4"/>
       <c r="D928" s="4"/>
@@ -8024,7 +8077,7 @@
       <c r="H928" s="4"/>
       <c r="I928" s="4"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A929" s="4"/>
       <c r="C929" s="4"/>
       <c r="D929" s="4"/>
@@ -8032,7 +8085,7 @@
       <c r="H929" s="4"/>
       <c r="I929" s="4"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A930" s="4"/>
       <c r="C930" s="4"/>
       <c r="D930" s="4"/>
@@ -8040,7 +8093,7 @@
       <c r="H930" s="4"/>
       <c r="I930" s="4"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A931" s="4"/>
       <c r="C931" s="4"/>
       <c r="D931" s="4"/>
@@ -8048,7 +8101,7 @@
       <c r="H931" s="4"/>
       <c r="I931" s="4"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A932" s="4"/>
       <c r="C932" s="4"/>
       <c r="D932" s="4"/>
@@ -8056,7 +8109,7 @@
       <c r="H932" s="4"/>
       <c r="I932" s="4"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A933" s="4"/>
       <c r="C933" s="4"/>
       <c r="D933" s="4"/>
@@ -8064,7 +8117,7 @@
       <c r="H933" s="4"/>
       <c r="I933" s="4"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A934" s="4"/>
       <c r="C934" s="4"/>
       <c r="D934" s="4"/>
@@ -8072,7 +8125,7 @@
       <c r="H934" s="4"/>
       <c r="I934" s="4"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A935" s="4"/>
       <c r="C935" s="4"/>
       <c r="D935" s="4"/>
@@ -8080,7 +8133,7 @@
       <c r="H935" s="4"/>
       <c r="I935" s="4"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A936" s="4"/>
       <c r="C936" s="4"/>
       <c r="D936" s="4"/>
@@ -8088,7 +8141,7 @@
       <c r="H936" s="4"/>
       <c r="I936" s="4"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A937" s="4"/>
       <c r="C937" s="4"/>
       <c r="D937" s="4"/>
@@ -8096,7 +8149,7 @@
       <c r="H937" s="4"/>
       <c r="I937" s="4"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A938" s="4"/>
       <c r="C938" s="4"/>
       <c r="D938" s="4"/>
@@ -8104,7 +8157,7 @@
       <c r="H938" s="4"/>
       <c r="I938" s="4"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A939" s="4"/>
       <c r="C939" s="4"/>
       <c r="D939" s="4"/>
@@ -8112,7 +8165,7 @@
       <c r="H939" s="4"/>
       <c r="I939" s="4"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A940" s="4"/>
       <c r="C940" s="4"/>
       <c r="D940" s="4"/>
@@ -8120,7 +8173,7 @@
       <c r="H940" s="4"/>
       <c r="I940" s="4"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A941" s="4"/>
       <c r="C941" s="4"/>
       <c r="D941" s="4"/>
@@ -8128,7 +8181,7 @@
       <c r="H941" s="4"/>
       <c r="I941" s="4"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A942" s="4"/>
       <c r="C942" s="4"/>
       <c r="D942" s="4"/>
@@ -8136,7 +8189,7 @@
       <c r="H942" s="4"/>
       <c r="I942" s="4"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A943" s="4"/>
       <c r="C943" s="4"/>
       <c r="D943" s="4"/>
@@ -8144,7 +8197,7 @@
       <c r="H943" s="4"/>
       <c r="I943" s="4"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A944" s="4"/>
       <c r="C944" s="4"/>
       <c r="D944" s="4"/>
@@ -8152,7 +8205,7 @@
       <c r="H944" s="4"/>
       <c r="I944" s="4"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A945" s="4"/>
       <c r="C945" s="4"/>
       <c r="D945" s="4"/>
@@ -8160,7 +8213,7 @@
       <c r="H945" s="4"/>
       <c r="I945" s="4"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A946" s="4"/>
       <c r="C946" s="4"/>
       <c r="D946" s="4"/>
@@ -8168,7 +8221,7 @@
       <c r="H946" s="4"/>
       <c r="I946" s="4"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A947" s="4"/>
       <c r="C947" s="4"/>
       <c r="D947" s="4"/>
@@ -8176,7 +8229,7 @@
       <c r="H947" s="4"/>
       <c r="I947" s="4"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A948" s="4"/>
       <c r="C948" s="4"/>
       <c r="D948" s="4"/>
@@ -8184,7 +8237,7 @@
       <c r="H948" s="4"/>
       <c r="I948" s="4"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A949" s="4"/>
       <c r="C949" s="4"/>
       <c r="D949" s="4"/>
@@ -8192,7 +8245,7 @@
       <c r="H949" s="4"/>
       <c r="I949" s="4"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A950" s="4"/>
       <c r="C950" s="4"/>
       <c r="D950" s="4"/>
@@ -8200,7 +8253,7 @@
       <c r="H950" s="4"/>
       <c r="I950" s="4"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A951" s="4"/>
       <c r="C951" s="4"/>
       <c r="D951" s="4"/>
@@ -8208,7 +8261,7 @@
       <c r="H951" s="4"/>
       <c r="I951" s="4"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A952" s="4"/>
       <c r="C952" s="4"/>
       <c r="D952" s="4"/>
@@ -8216,7 +8269,7 @@
       <c r="H952" s="4"/>
       <c r="I952" s="4"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A953" s="4"/>
       <c r="C953" s="4"/>
       <c r="D953" s="4"/>
@@ -8224,7 +8277,7 @@
       <c r="H953" s="4"/>
       <c r="I953" s="4"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A954" s="4"/>
       <c r="C954" s="4"/>
       <c r="D954" s="4"/>
@@ -8232,7 +8285,7 @@
       <c r="H954" s="4"/>
       <c r="I954" s="4"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A955" s="4"/>
       <c r="C955" s="4"/>
       <c r="D955" s="4"/>
@@ -8240,7 +8293,7 @@
       <c r="H955" s="4"/>
       <c r="I955" s="4"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A956" s="4"/>
       <c r="C956" s="4"/>
       <c r="D956" s="4"/>
@@ -8248,7 +8301,7 @@
       <c r="H956" s="4"/>
       <c r="I956" s="4"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A957" s="4"/>
       <c r="C957" s="4"/>
       <c r="D957" s="4"/>
@@ -8256,7 +8309,7 @@
       <c r="H957" s="4"/>
       <c r="I957" s="4"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A958" s="4"/>
       <c r="C958" s="4"/>
       <c r="D958" s="4"/>
@@ -8264,7 +8317,7 @@
       <c r="H958" s="4"/>
       <c r="I958" s="4"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A959" s="4"/>
       <c r="C959" s="4"/>
       <c r="D959" s="4"/>
@@ -8272,7 +8325,7 @@
       <c r="H959" s="4"/>
       <c r="I959" s="4"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A960" s="4"/>
       <c r="C960" s="4"/>
       <c r="D960" s="4"/>
@@ -8280,7 +8333,7 @@
       <c r="H960" s="4"/>
       <c r="I960" s="4"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A961" s="4"/>
       <c r="C961" s="4"/>
       <c r="D961" s="4"/>
@@ -8288,7 +8341,7 @@
       <c r="H961" s="4"/>
       <c r="I961" s="4"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A962" s="4"/>
       <c r="C962" s="4"/>
       <c r="D962" s="4"/>
@@ -8296,7 +8349,7 @@
       <c r="H962" s="4"/>
       <c r="I962" s="4"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A963" s="4"/>
       <c r="C963" s="4"/>
       <c r="D963" s="4"/>
@@ -8304,7 +8357,7 @@
       <c r="H963" s="4"/>
       <c r="I963" s="4"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A964" s="4"/>
       <c r="C964" s="4"/>
       <c r="D964" s="4"/>
@@ -8312,7 +8365,7 @@
       <c r="H964" s="4"/>
       <c r="I964" s="4"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A965" s="4"/>
       <c r="C965" s="4"/>
       <c r="D965" s="4"/>
@@ -8320,7 +8373,7 @@
       <c r="H965" s="4"/>
       <c r="I965" s="4"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A966" s="4"/>
       <c r="C966" s="4"/>
       <c r="D966" s="4"/>
@@ -8328,7 +8381,7 @@
       <c r="H966" s="4"/>
       <c r="I966" s="4"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A967" s="4"/>
       <c r="C967" s="4"/>
       <c r="D967" s="4"/>
@@ -8336,7 +8389,7 @@
       <c r="H967" s="4"/>
       <c r="I967" s="4"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A968" s="4"/>
       <c r="C968" s="4"/>
       <c r="D968" s="4"/>
@@ -8344,7 +8397,7 @@
       <c r="H968" s="4"/>
       <c r="I968" s="4"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A969" s="4"/>
       <c r="C969" s="4"/>
       <c r="D969" s="4"/>
@@ -8352,7 +8405,7 @@
       <c r="H969" s="4"/>
       <c r="I969" s="4"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A970" s="4"/>
       <c r="C970" s="4"/>
       <c r="D970" s="4"/>
@@ -8360,7 +8413,7 @@
       <c r="H970" s="4"/>
       <c r="I970" s="4"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A971" s="4"/>
       <c r="C971" s="4"/>
       <c r="D971" s="4"/>
@@ -8368,7 +8421,7 @@
       <c r="H971" s="4"/>
       <c r="I971" s="4"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A972" s="4"/>
       <c r="C972" s="4"/>
       <c r="D972" s="4"/>
@@ -8376,7 +8429,7 @@
       <c r="H972" s="4"/>
       <c r="I972" s="4"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A973" s="4"/>
       <c r="C973" s="4"/>
       <c r="D973" s="4"/>
@@ -8384,7 +8437,7 @@
       <c r="H973" s="4"/>
       <c r="I973" s="4"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A974" s="4"/>
       <c r="C974" s="4"/>
       <c r="D974" s="4"/>
@@ -8392,7 +8445,7 @@
       <c r="H974" s="4"/>
       <c r="I974" s="4"/>
     </row>
-    <row r="975">
+    <row r="975" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A975" s="4"/>
       <c r="C975" s="4"/>
       <c r="D975" s="4"/>
@@ -8400,7 +8453,7 @@
       <c r="H975" s="4"/>
       <c r="I975" s="4"/>
     </row>
-    <row r="976">
+    <row r="976" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A976" s="4"/>
       <c r="C976" s="4"/>
       <c r="D976" s="4"/>
@@ -8408,7 +8461,7 @@
       <c r="H976" s="4"/>
       <c r="I976" s="4"/>
     </row>
-    <row r="977">
+    <row r="977" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A977" s="4"/>
       <c r="C977" s="4"/>
       <c r="D977" s="4"/>
@@ -8416,7 +8469,7 @@
       <c r="H977" s="4"/>
       <c r="I977" s="4"/>
     </row>
-    <row r="978">
+    <row r="978" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A978" s="4"/>
       <c r="C978" s="4"/>
       <c r="D978" s="4"/>
@@ -8424,7 +8477,7 @@
       <c r="H978" s="4"/>
       <c r="I978" s="4"/>
     </row>
-    <row r="979">
+    <row r="979" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A979" s="4"/>
       <c r="C979" s="4"/>
       <c r="D979" s="4"/>
@@ -8432,7 +8485,7 @@
       <c r="H979" s="4"/>
       <c r="I979" s="4"/>
     </row>
-    <row r="980">
+    <row r="980" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A980" s="4"/>
       <c r="C980" s="4"/>
       <c r="D980" s="4"/>
@@ -8440,7 +8493,7 @@
       <c r="H980" s="4"/>
       <c r="I980" s="4"/>
     </row>
-    <row r="981">
+    <row r="981" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A981" s="4"/>
       <c r="C981" s="4"/>
       <c r="D981" s="4"/>
@@ -8448,7 +8501,7 @@
       <c r="H981" s="4"/>
       <c r="I981" s="4"/>
     </row>
-    <row r="982">
+    <row r="982" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A982" s="4"/>
       <c r="C982" s="4"/>
       <c r="D982" s="4"/>
@@ -8456,7 +8509,7 @@
       <c r="H982" s="4"/>
       <c r="I982" s="4"/>
     </row>
-    <row r="983">
+    <row r="983" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A983" s="4"/>
       <c r="C983" s="4"/>
       <c r="D983" s="4"/>
@@ -8464,7 +8517,7 @@
       <c r="H983" s="4"/>
       <c r="I983" s="4"/>
     </row>
-    <row r="984">
+    <row r="984" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A984" s="4"/>
       <c r="C984" s="4"/>
       <c r="D984" s="4"/>
@@ -8472,7 +8525,7 @@
       <c r="H984" s="4"/>
       <c r="I984" s="4"/>
     </row>
-    <row r="985">
+    <row r="985" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A985" s="4"/>
       <c r="C985" s="4"/>
       <c r="D985" s="4"/>
@@ -8480,7 +8533,7 @@
       <c r="H985" s="4"/>
       <c r="I985" s="4"/>
     </row>
-    <row r="986">
+    <row r="986" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A986" s="4"/>
       <c r="C986" s="4"/>
       <c r="D986" s="4"/>
@@ -8488,7 +8541,7 @@
       <c r="H986" s="4"/>
       <c r="I986" s="4"/>
     </row>
-    <row r="987">
+    <row r="987" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A987" s="4"/>
       <c r="C987" s="4"/>
       <c r="D987" s="4"/>
@@ -8496,7 +8549,7 @@
       <c r="H987" s="4"/>
       <c r="I987" s="4"/>
     </row>
-    <row r="988">
+    <row r="988" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A988" s="4"/>
       <c r="C988" s="4"/>
       <c r="D988" s="4"/>
@@ -8504,7 +8557,7 @@
       <c r="H988" s="4"/>
       <c r="I988" s="4"/>
     </row>
-    <row r="989">
+    <row r="989" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A989" s="4"/>
       <c r="C989" s="4"/>
       <c r="D989" s="4"/>
@@ -8512,7 +8565,7 @@
       <c r="H989" s="4"/>
       <c r="I989" s="4"/>
     </row>
-    <row r="990">
+    <row r="990" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A990" s="4"/>
       <c r="C990" s="4"/>
       <c r="D990" s="4"/>
@@ -8520,7 +8573,7 @@
       <c r="H990" s="4"/>
       <c r="I990" s="4"/>
     </row>
-    <row r="991">
+    <row r="991" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A991" s="4"/>
       <c r="C991" s="4"/>
       <c r="D991" s="4"/>
@@ -8528,7 +8581,7 @@
       <c r="H991" s="4"/>
       <c r="I991" s="4"/>
     </row>
-    <row r="992">
+    <row r="992" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A992" s="4"/>
       <c r="C992" s="4"/>
       <c r="D992" s="4"/>
@@ -8536,7 +8589,7 @@
       <c r="H992" s="4"/>
       <c r="I992" s="4"/>
     </row>
-    <row r="993">
+    <row r="993" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A993" s="4"/>
       <c r="C993" s="4"/>
       <c r="D993" s="4"/>
@@ -8544,7 +8597,7 @@
       <c r="H993" s="4"/>
       <c r="I993" s="4"/>
     </row>
-    <row r="994">
+    <row r="994" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A994" s="4"/>
       <c r="C994" s="4"/>
       <c r="D994" s="4"/>
@@ -8552,7 +8605,7 @@
       <c r="H994" s="4"/>
       <c r="I994" s="4"/>
     </row>
-    <row r="995">
+    <row r="995" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A995" s="4"/>
       <c r="C995" s="4"/>
       <c r="D995" s="4"/>
@@ -8560,7 +8613,7 @@
       <c r="H995" s="4"/>
       <c r="I995" s="4"/>
     </row>
-    <row r="996">
+    <row r="996" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A996" s="4"/>
       <c r="C996" s="4"/>
       <c r="D996" s="4"/>
@@ -8568,7 +8621,7 @@
       <c r="H996" s="4"/>
       <c r="I996" s="4"/>
     </row>
-    <row r="997">
+    <row r="997" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A997" s="4"/>
       <c r="C997" s="4"/>
       <c r="D997" s="4"/>
@@ -8576,7 +8629,7 @@
       <c r="H997" s="4"/>
       <c r="I997" s="4"/>
     </row>
-    <row r="998">
+    <row r="998" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A998" s="4"/>
       <c r="C998" s="4"/>
       <c r="D998" s="4"/>
@@ -8584,7 +8637,7 @@
       <c r="H998" s="4"/>
       <c r="I998" s="4"/>
     </row>
-    <row r="999">
+    <row r="999" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A999" s="4"/>
       <c r="C999" s="4"/>
       <c r="D999" s="4"/>
@@ -8592,10 +8645,17 @@
       <c r="H999" s="4"/>
       <c r="I999" s="4"/>
     </row>
+    <row r="1000" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1000" s="4"/>
+      <c r="C1000" s="4"/>
+      <c r="D1000" s="4"/>
+      <c r="E1000" s="4"/>
+      <c r="H1000" s="4"/>
+      <c r="I1000" s="4"/>
+    </row>
   </sheetData>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
 </worksheet>
 </file>
--- a/Documentation/Product Backlog2.xlsx
+++ b/Documentation/Product Backlog2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.bowen\source\repos\Kanrail\5153-Ethics_Game\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4350D404-A346-4C2E-BBFC-B881E16FD2C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185643CF-257C-4B4D-8FED-9470ECC6EED9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -686,7 +686,7 @@
         <v>37</v>
       </c>
       <c r="C11" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>38</v>
